--- a/100runs/run082/NotionalETEOutput082.xlsx
+++ b/100runs/run082/NotionalETEOutput082.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,25 +49,22 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HELLMASKER_State_Update</t>
+    <t>Missile_HIGHWIND_State_Update</t>
   </si>
   <si>
-    <t>Missile_BRAVER_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_472.MISSILE_HELLMASKER_472</t>
+    <t>MISSILE_HIGHWIND_38.MISSILE_HIGHWIND_38</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_110.MISSILE_HELLMASKER_110</t>
+    <t>MISSILE_SOMERSAULT_22.MISSILE_SOMERSAULT_22</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_134.MISSILE_BRAVER_134</t>
+    <t>MISSILE_HIGHWIND</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER</t>
-  </si>
-  <si>
-    <t>MISSILE_BRAVER</t>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -425,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K160"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -477,28 +474,28 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G2">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H2">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I2">
-        <v>-1659.933493783589</v>
+        <v>1114861.695812774</v>
       </c>
       <c r="J2">
-        <v>2659.979843152873</v>
+        <v>4843226.485099957</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984367.980198518</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,28 +509,28 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G3">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H3">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I3">
-        <v>-1627.161986649444</v>
+        <v>1114891.309818226</v>
       </c>
       <c r="J3">
-        <v>2595.273721131245</v>
+        <v>4843177.833479472</v>
       </c>
       <c r="K3">
-        <v>288.6905142266858</v>
+        <v>3984671.776012002</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -547,28 +544,28 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G4">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H4">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I4">
-        <v>-1593.583511301355</v>
+        <v>1114921.653041319</v>
       </c>
       <c r="J4">
-        <v>2530.567599109617</v>
+        <v>4843129.181858986</v>
       </c>
       <c r="K4">
-        <v>562.9855961042183</v>
+        <v>3984960.423173676</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -582,28 +579,28 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G5">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H5">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I5">
-        <v>-1559.178196889449</v>
+        <v>1114952.743438364</v>
       </c>
       <c r="J5">
-        <v>2465.861477087989</v>
+        <v>4843080.5302385</v>
       </c>
       <c r="K5">
-        <v>822.8852456325999</v>
+        <v>3985233.921683539</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -617,28 +614,28 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G6">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H6">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I6">
-        <v>-1523.92568326246</v>
+        <v>1114984.599407834</v>
       </c>
       <c r="J6">
-        <v>2401.155355066362</v>
+        <v>4843031.878618015</v>
       </c>
       <c r="K6">
-        <v>1068.389462811828</v>
+        <v>3985492.271541593</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -652,28 +649,28 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G7">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H7">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I7">
-        <v>-1487.805108919123</v>
+        <v>1115017.239801246</v>
       </c>
       <c r="J7">
-        <v>2336.449233044734</v>
+        <v>4842983.226997529</v>
       </c>
       <c r="K7">
-        <v>1299.498247641906</v>
+        <v>3985735.472747836</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -687,28 +684,28 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G8">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H8">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I8">
-        <v>-1450.795098662901</v>
+        <v>1115050.683934317</v>
       </c>
       <c r="J8">
-        <v>2271.743111023106</v>
+        <v>4842934.575377042</v>
       </c>
       <c r="K8">
-        <v>1516.211600122832</v>
+        <v>3985963.525302268</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -722,28 +719,28 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G9">
-        <v>-58.88231294921911</v>
+        <v>4841120.740822298</v>
       </c>
       <c r="H9">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I9">
-        <v>-1412.873750952704</v>
+        <v>1115084.951598396</v>
       </c>
       <c r="J9">
-        <v>2207.036989001478</v>
+        <v>4842885.923756558</v>
       </c>
       <c r="K9">
-        <v>1718.529520254605</v>
+        <v>3986176.429204891</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -757,28 +754,28 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>239.3202312438125</v>
+        <v>1116578.740954978</v>
       </c>
       <c r="G10">
-        <v>-49.15918565323484</v>
+        <v>4841137.25362847</v>
       </c>
       <c r="H10">
-        <v>799.9438653545189</v>
+        <v>3985227.92048231</v>
       </c>
       <c r="I10">
-        <v>-1374.018624942145</v>
+        <v>1115120.063072178</v>
       </c>
       <c r="J10">
-        <v>2142.33086697985</v>
+        <v>4842837.272136072</v>
       </c>
       <c r="K10">
-        <v>1906.452008037226</v>
+        <v>3986374.184455702</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -792,28 +789,28 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>185.7404176958598</v>
+        <v>1116530.06038087</v>
       </c>
       <c r="G11">
-        <v>-39.43605835725057</v>
+        <v>4841153.766434642</v>
       </c>
       <c r="H11">
-        <v>985.5254592498477</v>
+        <v>3985427.174868691</v>
       </c>
       <c r="I11">
-        <v>-1334.206727199635</v>
+        <v>1115156.0391337</v>
       </c>
       <c r="J11">
-        <v>2077.624744958222</v>
+        <v>4842788.620515587</v>
       </c>
       <c r="K11">
-        <v>2079.979063470695</v>
+        <v>3986556.791054704</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -827,28 +824,28 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>154.264965090034</v>
+        <v>1116501.462985664</v>
       </c>
       <c r="G12">
-        <v>-29.71293106126631</v>
+        <v>4841170.279240814</v>
       </c>
       <c r="H12">
-        <v>1096.067347576935</v>
+        <v>3985545.860971476</v>
       </c>
       <c r="I12">
-        <v>-1293.414498101491</v>
+        <v>1115192.901072639</v>
       </c>
       <c r="J12">
-        <v>2012.918622936594</v>
+        <v>4842739.9688951</v>
       </c>
       <c r="K12">
-        <v>2239.110686555013</v>
+        <v>3986724.249001895</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -862,28 +859,28 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>134.3953502492014</v>
+        <v>1116483.410211798</v>
       </c>
       <c r="G13">
-        <v>-19.98980376528204</v>
+        <v>4841186.792046987</v>
       </c>
       <c r="H13">
-        <v>1175.064163923693</v>
+        <v>3985630.67790745</v>
       </c>
       <c r="I13">
-        <v>-1251.617797889967</v>
+        <v>1115230.670702912</v>
       </c>
       <c r="J13">
-        <v>1948.212500914966</v>
+        <v>4842691.317274615</v>
       </c>
       <c r="K13">
-        <v>2383.846877290178</v>
+        <v>3986876.558297276</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -897,28 +894,28 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>120.5383615147065</v>
+        <v>1116470.820280585</v>
       </c>
       <c r="G14">
-        <v>-10.26667646929778</v>
+        <v>4841203.304853158</v>
       </c>
       <c r="H14">
-        <v>1236.578942490338</v>
+        <v>3985696.724810051</v>
       </c>
       <c r="I14">
-        <v>-1208.791892387994</v>
+        <v>1115269.370375584</v>
       </c>
       <c r="J14">
-        <v>1883.506378893338</v>
+        <v>4842642.665654129</v>
       </c>
       <c r="K14">
-        <v>2514.187635676192</v>
+        <v>3987013.718940846</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -932,28 +929,28 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>110.2006329493074</v>
+        <v>1116461.427814874</v>
       </c>
       <c r="G15">
-        <v>-0.5435491733135172</v>
+        <v>4841219.817659331</v>
       </c>
       <c r="H15">
-        <v>1286.964317657578</v>
+        <v>3985750.822346347</v>
       </c>
       <c r="I15">
-        <v>-1164.911438362145</v>
+        <v>1115309.022992091</v>
       </c>
       <c r="J15">
-        <v>1818.800256871711</v>
+        <v>4842594.014033644</v>
       </c>
       <c r="K15">
-        <v>2630.132961713053</v>
+        <v>3987135.730932606</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -967,28 +964,28 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>102.1179728321608</v>
+        <v>1116454.084218308</v>
       </c>
       <c r="G16">
-        <v>9.179578122670751</v>
+        <v>4841236.330465502</v>
       </c>
       <c r="H16">
-        <v>1329.637052470104</v>
+        <v>3985796.639010661</v>
       </c>
       <c r="I16">
-        <v>-1119.950468525187</v>
+        <v>1115349.652017801</v>
       </c>
       <c r="J16">
-        <v>1754.094134850083</v>
+        <v>4842545.362413158</v>
       </c>
       <c r="K16">
-        <v>2731.682855400762</v>
+        <v>3987242.594272557</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1002,28 +999,28 @@
         <v>13</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>95.57851227960853</v>
+        <v>1116448.142713981</v>
       </c>
       <c r="G17">
-        <v>18.90270541865502</v>
+        <v>4841252.843271675</v>
       </c>
       <c r="H17">
-        <v>1366.647878056726</v>
+        <v>3985836.376622495</v>
       </c>
       <c r="I17">
-        <v>-1073.882376169328</v>
+        <v>1115391.281495891</v>
       </c>
       <c r="J17">
-        <v>1689.388012828455</v>
+        <v>4842496.710792673</v>
       </c>
       <c r="K17">
-        <v>2818.837316739319</v>
+        <v>3987334.308960696</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1037,28 +1034,28 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>90.14842988065818</v>
+        <v>1116443.209148312</v>
       </c>
       <c r="G18">
-        <v>28.62583271463928</v>
+        <v>4841269.356077847</v>
       </c>
       <c r="H18">
-        <v>1399.324774691637</v>
+        <v>3985871.46100156</v>
       </c>
       <c r="I18">
-        <v>-1026.679899421074</v>
+        <v>1115433.93606158</v>
       </c>
       <c r="J18">
-        <v>1624.681890806827</v>
+        <v>4842448.059172187</v>
       </c>
       <c r="K18">
-        <v>2891.596345728725</v>
+        <v>3987410.874997025</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1072,28 +1069,28 @@
         <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>85.54684361048406</v>
+        <v>1116439.028322613</v>
       </c>
       <c r="G19">
-        <v>38.34896001062356</v>
+        <v>4841285.86888402</v>
       </c>
       <c r="H19">
-        <v>1428.577172715154</v>
+        <v>3985902.868580814</v>
       </c>
       <c r="I19">
-        <v>-978.3151051083756</v>
+        <v>1115477.640956708</v>
       </c>
       <c r="J19">
-        <v>1559.975768785199</v>
+        <v>4842399.407551702</v>
       </c>
       <c r="K19">
-        <v>2949.959942368978</v>
+        <v>3987472.292381544</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1107,28 +1104,28 @@
         <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>81.58302597117112</v>
+        <v>1116435.426949156</v>
       </c>
       <c r="G20">
-        <v>48.07208730660781</v>
+        <v>4841302.381690192</v>
       </c>
       <c r="H20">
-        <v>1455.055238865963</v>
+        <v>3985931.29742827</v>
       </c>
       <c r="I20">
-        <v>-928.7593722305223</v>
+        <v>1115522.422044671</v>
       </c>
       <c r="J20">
-        <v>1495.269646763571</v>
+        <v>4842350.755931215</v>
       </c>
       <c r="K20">
-        <v>2993.92810666008</v>
+        <v>3987518.561114253</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1142,28 +1139,28 @@
         <v>13</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>78.12240835471869</v>
+        <v>1116432.282764039</v>
       </c>
       <c r="G21">
-        <v>57.79521460259208</v>
+        <v>4841318.894496365</v>
       </c>
       <c r="H21">
-        <v>1479.23992897223</v>
+        <v>3985957.263934354</v>
       </c>
       <c r="I21">
-        <v>-877.9833750209906</v>
+        <v>1115568.305825726</v>
       </c>
       <c r="J21">
-        <v>1430.563524741943</v>
+        <v>4842302.10431073</v>
       </c>
       <c r="K21">
-        <v>3023.500838602029</v>
+        <v>3987549.681195151</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1177,28 +1174,28 @@
         <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>75.0670100783105</v>
+        <v>1116429.506745752</v>
       </c>
       <c r="G22">
-        <v>67.51834189857635</v>
+        <v>4841335.407302536</v>
       </c>
       <c r="H22">
-        <v>1501.497047017359</v>
+        <v>3985981.160853793</v>
       </c>
       <c r="I22">
-        <v>-825.9570655932346</v>
+        <v>1115615.319452679</v>
       </c>
       <c r="J22">
-        <v>1365.857402720316</v>
+        <v>4842253.452690245</v>
       </c>
       <c r="K22">
-        <v>3038.678138194827</v>
+        <v>3987565.652624238</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1212,28 +1209,28 @@
         <v>13</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>72.34359022390434</v>
+        <v>1116427.032350392</v>
       </c>
       <c r="G23">
-        <v>77.24146919456061</v>
+        <v>4841351.920108709</v>
       </c>
       <c r="H23">
-        <v>1522.111303610254</v>
+        <v>3986003.293873356</v>
       </c>
       <c r="I23">
-        <v>-772.6496561591471</v>
+        <v>1115663.490746943</v>
       </c>
       <c r="J23">
-        <v>1301.151280698688</v>
+        <v>4842204.80106976</v>
       </c>
       <c r="K23">
-        <v>3039.460005438472</v>
+        <v>3987566.475401516</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1247,28 +1244,28 @@
         <v>13</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>69.8961673777481</v>
+        <v>1116424.808715382</v>
       </c>
       <c r="G24">
-        <v>86.96459649054488</v>
+        <v>4841368.432914881</v>
       </c>
       <c r="H24">
-        <v>1541.308644994274</v>
+        <v>3986023.905585958</v>
       </c>
       <c r="I24">
-        <v>-718.0296008096628</v>
+        <v>1115712.848215011</v>
       </c>
       <c r="J24">
-        <v>1236.44515867706</v>
+        <v>4842156.149449273</v>
       </c>
       <c r="K24">
-        <v>3025.846440332965</v>
+        <v>3987552.149526983</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1282,28 +1279,28 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>67.68112626635416</v>
+        <v>1116422.796213549</v>
       </c>
       <c r="G25">
-        <v>96.68772378652915</v>
+        <v>4841384.945721053</v>
       </c>
       <c r="H25">
-        <v>1559.271389211805</v>
+        <v>3986043.191741992</v>
       </c>
       <c r="I25">
-        <v>-662.0645768467265</v>
+        <v>1115763.421065323</v>
       </c>
       <c r="J25">
-        <v>1171.739036655432</v>
+        <v>4842107.497828788</v>
       </c>
       <c r="K25">
-        <v>2997.837442878307</v>
+        <v>3987522.675000639</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1317,28 +1314,28 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>65.66391773864783</v>
+        <v>1116420.963454853</v>
       </c>
       <c r="G26">
-        <v>106.4108510825134</v>
+        <v>4841401.458527225</v>
       </c>
       <c r="H26">
-        <v>1576.14878235967</v>
+        <v>3986061.312583314</v>
       </c>
       <c r="I26">
-        <v>-604.7214656555811</v>
+        <v>1115815.239225547</v>
       </c>
       <c r="J26">
-        <v>1107.032914633804</v>
+        <v>4842058.846208302</v>
       </c>
       <c r="K26">
-        <v>2955.433013074496</v>
+        <v>3987478.051822486</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1352,28 +1349,28 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>63.81677382099568</v>
+        <v>1116419.285210372</v>
       </c>
       <c r="G27">
-        <v>116.1339783784977</v>
+        <v>4841417.971333397</v>
       </c>
       <c r="H27">
-        <v>1592.064543413555</v>
+        <v>3986078.400943943</v>
       </c>
       <c r="I27">
-        <v>-545.966333106049</v>
+        <v>1115868.333360295</v>
       </c>
       <c r="J27">
-        <v>1042.326792612176</v>
+        <v>4842010.194587816</v>
       </c>
       <c r="K27">
-        <v>2898.633150921534</v>
+        <v>3987418.279992522</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1387,28 +1384,28 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>62.11708870631853</v>
+        <v>1116417.740941333</v>
       </c>
       <c r="G28">
-        <v>125.8571056744819</v>
+        <v>4841434.484139569</v>
       </c>
       <c r="H28">
-        <v>1607.122373114374</v>
+        <v>3986094.56816481</v>
       </c>
       <c r="I28">
-        <v>-485.7644094712156</v>
+        <v>1115922.734889266</v>
       </c>
       <c r="J28">
-        <v>977.6206705905482</v>
+        <v>4841961.542967331</v>
       </c>
       <c r="K28">
-        <v>2827.437856419419</v>
+        <v>3987343.359510748</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1422,28 +1419,28 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>60.54624802623998</v>
+        <v>1116416.31373543</v>
       </c>
       <c r="G29">
-        <v>135.5802329704662</v>
+        <v>4841450.996945742</v>
       </c>
       <c r="H29">
-        <v>1621.410052560861</v>
+        <v>3986109.908494317</v>
       </c>
       <c r="I29">
-        <v>-424.0800688516279</v>
+        <v>1115978.476005838</v>
       </c>
       <c r="J29">
-        <v>912.9145485689203</v>
+        <v>4841912.891346846</v>
       </c>
       <c r="K29">
-        <v>2741.847129568152</v>
+        <v>3987253.290377163</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1457,28 +1454,28 @@
         <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>59.08876684690773</v>
+        <v>1116414.989523645</v>
       </c>
       <c r="G30">
-        <v>145.3033602664505</v>
+        <v>4841467.509751913</v>
       </c>
       <c r="H30">
-        <v>1635.002543735182</v>
+        <v>3986124.5024173</v>
       </c>
       <c r="I30">
-        <v>-360.8768080928359</v>
+        <v>1116035.589696126</v>
       </c>
       <c r="J30">
-        <v>848.2084265472922</v>
+        <v>4841864.23972636</v>
       </c>
       <c r="K30">
-        <v>2641.860970367733</v>
+        <v>3987148.072591769</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1492,28 +1489,28 @@
         <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>57.73164463730578</v>
+        <v>1116413.75649419</v>
       </c>
       <c r="G31">
-        <v>155.0264875624347</v>
+        <v>4841484.022558086</v>
       </c>
       <c r="H31">
-        <v>1647.964370119201</v>
+        <v>3986138.419211031</v>
       </c>
       <c r="I31">
-        <v>-296.1172251837924</v>
+        <v>1116094.109758493</v>
       </c>
       <c r="J31">
-        <v>783.5023045256646</v>
+        <v>4841815.588105874</v>
       </c>
       <c r="K31">
-        <v>2527.479378818164</v>
+        <v>3987027.706154563</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1527,28 +1524,28 @@
         <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>56.46387552794864</v>
+        <v>1116412.604647553</v>
       </c>
       <c r="G32">
-        <v>164.749614858419</v>
+        <v>4841500.535364258</v>
       </c>
       <c r="H32">
-        <v>1660.351469117652</v>
+        <v>3986151.718934125</v>
       </c>
       <c r="I32">
-        <v>-229.7629971233377</v>
+        <v>1116154.070823559</v>
       </c>
       <c r="J32">
-        <v>718.7961825040366</v>
+        <v>4841766.936485388</v>
       </c>
       <c r="K32">
-        <v>2398.702354919441</v>
+        <v>3986892.191065548</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1562,28 +1559,28 @@
         <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>55.27607155234805</v>
+        <v>1116411.525454184</v>
       </c>
       <c r="G33">
-        <v>174.4727421544032</v>
+        <v>4841517.04817043</v>
       </c>
       <c r="H33">
-        <v>1672.21265096293</v>
+        <v>3986164.453992924</v>
       </c>
       <c r="I33">
-        <v>-161.7748572416644</v>
+        <v>1116215.508374689</v>
       </c>
       <c r="J33">
-        <v>654.0900604824089</v>
+        <v>4841718.284864903</v>
       </c>
       <c r="K33">
-        <v>2255.529898671567</v>
+        <v>3986741.527324721</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1597,28 +1594,28 @@
         <v>13</v>
       </c>
       <c r="D34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>54.16016932182411</v>
+        <v>1116410.511587998</v>
       </c>
       <c r="G34">
-        <v>184.1958694503875</v>
+        <v>4841533.560976603</v>
       </c>
       <c r="H34">
-        <v>1683.590760342542</v>
+        <v>3986176.670388715</v>
       </c>
       <c r="I34">
-        <v>-92.1125719633465</v>
+        <v>1116278.458768994</v>
       </c>
       <c r="J34">
-        <v>589.3839384607809</v>
+        <v>4841669.633244418</v>
       </c>
       <c r="K34">
-        <v>2097.96201007454</v>
+        <v>3986575.714932085</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1632,28 +1629,28 @@
         <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>53.10919915265582</v>
+        <v>1116409.556716605</v>
       </c>
       <c r="G35">
-        <v>193.9189967463718</v>
+        <v>4841550.073782775</v>
       </c>
       <c r="H35">
-        <v>1694.523610602263</v>
+        <v>3986188.408720756</v>
       </c>
       <c r="I35">
-        <v>-20.73491699817768</v>
+        <v>1116342.959258845</v>
       </c>
       <c r="J35">
-        <v>524.6778164391529</v>
+        <v>4841620.981623932</v>
       </c>
       <c r="K35">
-        <v>1925.998689128361</v>
+        <v>3986394.753887638</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1667,28 +1664,28 @@
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>52.11710152311453</v>
+        <v>1116408.655334555</v>
       </c>
       <c r="G36">
-        <v>203.6421240423561</v>
+        <v>4841566.586588947</v>
       </c>
       <c r="H36">
-        <v>1705.04474194811</v>
+        <v>3986199.705000341</v>
       </c>
       <c r="I36">
-        <v>52.40034705427014</v>
+        <v>1116409.048013919</v>
       </c>
       <c r="J36">
-        <v>459.9716944175252</v>
+        <v>4841572.330003446</v>
       </c>
       <c r="K36">
-        <v>1739.639935833031</v>
+        <v>3986198.644191382</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1702,28 +1699,28 @@
         <v>13</v>
       </c>
       <c r="D37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>51.17857980974842</v>
+        <v>1116407.802629538</v>
       </c>
       <c r="G37">
-        <v>213.3652513383403</v>
+        <v>4841583.09939512</v>
       </c>
       <c r="H37">
-        <v>1715.184041996257</v>
+        <v>3986210.591317066</v>
       </c>
       <c r="I37">
-        <v>127.3364997008002</v>
+        <v>1116476.764143787</v>
       </c>
       <c r="J37">
-        <v>395.2655723958972</v>
+        <v>4841523.678382961</v>
       </c>
       <c r="K37">
-        <v>1538.885750188549</v>
+        <v>3985987.385843314</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1737,28 +1734,28 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>50.28898112505688</v>
+        <v>1116406.994374118</v>
       </c>
       <c r="G38">
-        <v>223.0883786343246</v>
+        <v>4841599.612201291</v>
       </c>
       <c r="H38">
-        <v>1724.968257612096</v>
+        <v>3986221.096388381</v>
       </c>
       <c r="I38">
-        <v>204.1178861662554</v>
+        <v>1116546.147721055</v>
       </c>
       <c r="J38">
-        <v>330.5594503742695</v>
+        <v>4841475.026762475</v>
       </c>
       <c r="K38">
-        <v>1323.736132194915</v>
+        <v>3985760.978843437</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1772,28 +1769,28 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>49.44419913371716</v>
+        <v>1116406.226837435</v>
       </c>
       <c r="G39">
-        <v>232.8115059303089</v>
+        <v>4841616.125007464</v>
       </c>
       <c r="H39">
-        <v>1734.421420120279</v>
+        <v>3986231.246016129</v>
       </c>
       <c r="I39">
-        <v>282.7899436358413</v>
+        <v>1116617.239805082</v>
       </c>
       <c r="J39">
-        <v>265.8533283526415</v>
+        <v>4841426.375141989</v>
       </c>
       <c r="K39">
-        <v>1094.191081852128</v>
+        <v>3985519.423191748</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1807,28 +1804,28 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>48.64059421343752</v>
+        <v>1116405.496712669</v>
       </c>
       <c r="G40">
-        <v>242.5346332262931</v>
+        <v>4841632.637813636</v>
       </c>
       <c r="H40">
-        <v>1743.565200905622</v>
+        <v>3986241.063468342</v>
       </c>
       <c r="I40">
-        <v>363.3992281436508</v>
+        <v>1116690.082466274</v>
       </c>
       <c r="J40">
-        <v>201.1472063310135</v>
+        <v>4841377.723521504</v>
       </c>
       <c r="K40">
-        <v>850.2505991601893</v>
+        <v>3985262.71888825</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1842,28 +1839,28 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>47.87492741808747</v>
+        <v>1116404.801057034</v>
       </c>
       <c r="G41">
-        <v>252.2577605222774</v>
+        <v>4841649.150619808</v>
       </c>
       <c r="H41">
-        <v>1752.419210646903</v>
+        <v>3986250.569800522</v>
       </c>
       <c r="I41">
-        <v>445.9934421232819</v>
+        <v>1116764.718810983</v>
       </c>
       <c r="J41">
-        <v>136.4410843093858</v>
+        <v>4841329.071901019</v>
       </c>
       <c r="K41">
-        <v>591.9146841190992</v>
+        <v>3984990.865932941</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1877,28 +1874,28 @@
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>47.14430550987407</v>
+        <v>1116404.137241847</v>
       </c>
       <c r="G42">
-        <v>261.9808878182616</v>
+        <v>4841665.66342598</v>
       </c>
       <c r="H42">
-        <v>1761.001252576754</v>
+        <v>3986259.784127561</v>
       </c>
       <c r="I42">
-        <v>530.6214626368796</v>
+        <v>1116841.193007018</v>
       </c>
       <c r="J42">
-        <v>71.73496228775782</v>
+        <v>4841280.420280533</v>
       </c>
       <c r="K42">
-        <v>319.1833367288564</v>
+        <v>3984703.864325822</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1912,28 +1909,28 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>46.44613493323227</v>
+        <v>1116403.502910702</v>
       </c>
       <c r="G43">
-        <v>271.7040151142459</v>
+        <v>4841682.176232153</v>
       </c>
       <c r="H43">
-        <v>1769.32753799163</v>
+        <v>3986268.72385513</v>
       </c>
       <c r="I43">
-        <v>617.3333702992727</v>
+        <v>1116919.550309774</v>
       </c>
       <c r="J43">
-        <v>7.028840266129825</v>
+        <v>4841231.768660047</v>
       </c>
       <c r="K43">
-        <v>32.05655698946185</v>
+        <v>3984401.714066893</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1947,28 +1944,28 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>45.77808306118619</v>
+        <v>1116402.895944262</v>
       </c>
       <c r="G44">
-        <v>281.4271424102302</v>
+        <v>4841698.689038324</v>
       </c>
       <c r="H44">
-        <v>1777.412870569062</v>
+        <v>3986277.404877571</v>
       </c>
       <c r="I44">
-        <v>706.1804789143592</v>
+        <v>1116999.837089024</v>
       </c>
       <c r="J44">
-        <v>-57.67728175549787</v>
+        <v>4841183.117039561</v>
       </c>
       <c r="K44">
-        <v>-269.4656550990839</v>
+        <v>3984084.415156153</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1982,28 +1979,28 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>45.13804539437547</v>
+        <v>1116402.314430461</v>
       </c>
       <c r="G45">
-        <v>291.1502697062144</v>
+        <v>4841715.201844497</v>
       </c>
       <c r="H45">
-        <v>1785.270804757894</v>
+        <v>3986285.841747965</v>
       </c>
       <c r="I45">
-        <v>797.2153658412515</v>
+        <v>1117082.10085635</v>
       </c>
       <c r="J45">
-        <v>-122.3834037771259</v>
+        <v>4841134.465419076</v>
       </c>
       <c r="K45">
-        <v>-585.3832995367825</v>
+        <v>3983751.967593603</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2017,28 +2014,28 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>44.52411766174006</v>
+        <v>1116401.756639149</v>
       </c>
       <c r="G46">
-        <v>300.8733970021987</v>
+        <v>4841731.714650668</v>
       </c>
       <c r="H46">
-        <v>1792.913782498447</v>
+        <v>3986294.047824914</v>
       </c>
       <c r="I46">
-        <v>890.4919031081589</v>
+        <v>1117166.390293265</v>
       </c>
       <c r="J46">
-        <v>-187.0895257987539</v>
+        <v>4841085.81379859</v>
       </c>
       <c r="K46">
-        <v>-915.6963763236338</v>
+        <v>3983404.371379243</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2052,28 +2049,28 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>43.93457198027</v>
+        <v>1116401.221000439</v>
       </c>
       <c r="G47">
-        <v>310.596524298183</v>
+        <v>4841748.227456841</v>
       </c>
       <c r="H47">
-        <v>1800.353251735783</v>
+        <v>3986302.035399796</v>
       </c>
       <c r="I47">
-        <v>986.0652892924229</v>
+        <v>1117252.75528002</v>
       </c>
       <c r="J47">
-        <v>-251.7956478203819</v>
+        <v>4841037.162178105</v>
       </c>
       <c r="K47">
-        <v>-1260.404885459636</v>
+        <v>3983041.626513072</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2087,28 +2084,28 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>43.36783639401153</v>
+        <v>1116400.70608611</v>
       </c>
       <c r="G48">
-        <v>320.3196515941672</v>
+        <v>4841764.740263013</v>
       </c>
       <c r="H48">
-        <v>1807.599769560285</v>
+        <v>3986309.815807498</v>
       </c>
       <c r="I48">
-        <v>1083.992082185571</v>
+        <v>1117341.246925119</v>
       </c>
       <c r="J48">
-        <v>-316.5017698420093</v>
+        <v>4840988.510557619</v>
       </c>
       <c r="K48">
-        <v>-1619.508826944789</v>
+        <v>3982663.732995091</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2122,28 +2119,28 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>42.82247724056852</v>
+        <v>1116400.210593593</v>
       </c>
       <c r="G49">
-        <v>330.0427788901515</v>
+        <v>4841781.253069185</v>
       </c>
       <c r="H49">
-        <v>1814.663092307982</v>
+        <v>3986317.399523158</v>
       </c>
       <c r="I49">
-        <v>1184.330232262716</v>
+        <v>1117431.917595568</v>
       </c>
       <c r="J49">
-        <v>-381.2078918636373</v>
+        <v>4840939.858937134</v>
       </c>
       <c r="K49">
-        <v>-1993.008200779095</v>
+        <v>3982270.6908253</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2157,28 +2154,28 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>42.29718389472332</v>
+        <v>1116399.733332103</v>
       </c>
       <c r="G50">
-        <v>339.7659061861358</v>
+        <v>4841797.765875358</v>
       </c>
       <c r="H50">
-        <v>1821.552254550389</v>
+        <v>3986324.796246974</v>
       </c>
       <c r="I50">
-        <v>1287.139116976105</v>
+        <v>1117524.82094786</v>
       </c>
       <c r="J50">
-        <v>-445.9140138852653</v>
+        <v>4840891.207316647</v>
       </c>
       <c r="K50">
-        <v>-2380.903006962554</v>
+        <v>3981862.500003698</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2192,28 +2189,28 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>41.79075551958161</v>
+        <v>1116399.273210605</v>
       </c>
       <c r="G51">
-        <v>349.48903348212</v>
+        <v>4841814.278681531</v>
       </c>
       <c r="H51">
-        <v>1828.275638578433</v>
+        <v>3986332.014978803</v>
       </c>
       <c r="I51">
-        <v>1392.479575893122</v>
+        <v>1117620.011959734</v>
       </c>
       <c r="J51">
-        <v>-510.6201359068933</v>
+        <v>4840842.555696162</v>
       </c>
       <c r="K51">
-        <v>-2783.193245495165</v>
+        <v>3981439.160530286</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2227,28 +2224,28 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>41.30208952039492</v>
+        <v>1116398.829227325</v>
       </c>
       <c r="G52">
-        <v>359.2121607781043</v>
+        <v>4841830.791487702</v>
       </c>
       <c r="H52">
-        <v>1834.841035721028</v>
+        <v>3986339.064084006</v>
       </c>
       <c r="I52">
-        <v>1500.413946699525</v>
+        <v>1117717.546962701</v>
       </c>
       <c r="J52">
-        <v>-575.3262579285213</v>
+        <v>4840793.904075677</v>
       </c>
       <c r="K52">
-        <v>-3199.878916376928</v>
+        <v>3981000.672405063</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2262,28 +2259,28 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>40.83017144839634</v>
+        <v>1116398.400460572</v>
       </c>
       <c r="G53">
-        <v>368.9352880740886</v>
+        <v>4841847.304293875</v>
       </c>
       <c r="H53">
-        <v>1841.25570062337</v>
+        <v>3986345.951351714</v>
       </c>
       <c r="I53">
-        <v>1611.006102089234</v>
+        <v>1117817.483675386</v>
       </c>
       <c r="J53">
-        <v>-640.0323799501487</v>
+        <v>4840745.252455192</v>
       </c>
       <c r="K53">
-        <v>-3630.96001960784</v>
+        <v>3980547.035628031</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2297,28 +2294,28 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>40.37406614427815</v>
+        <v>1116397.986060697</v>
       </c>
       <c r="G54">
-        <v>378.6584153700728</v>
+        <v>4841863.817100047</v>
       </c>
       <c r="H54">
-        <v>1847.526399433203</v>
+        <v>3986352.684046576</v>
       </c>
       <c r="I54">
-        <v>1724.321487562499</v>
+        <v>1117919.88123768</v>
       </c>
       <c r="J54">
-        <v>-704.7385019717766</v>
+        <v>4840696.600834705</v>
       </c>
       <c r="K54">
-        <v>-4076.436555187906</v>
+        <v>3980078.250199188</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,7 +2323,7 @@
         <v>82</v>
       </c>
       <c r="B55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C55" t="s">
         <v>14</v>
@@ -2338,22 +2335,22 @@
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G55">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H55">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I55">
-        <v>-1623.5927174693</v>
+        <v>1114861.085065805</v>
       </c>
       <c r="J55">
-        <v>1755.959866237854</v>
+        <v>4843220.954194031</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984359.37094523</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,7 +2358,7 @@
         <v>82</v>
       </c>
       <c r="B56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>14</v>
@@ -2373,22 +2370,22 @@
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G56">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H56">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I56">
-        <v>-1591.53867402554</v>
+        <v>1114890.699055034</v>
       </c>
       <c r="J56">
-        <v>1713.244748052901</v>
+        <v>4843172.302629105</v>
       </c>
       <c r="K56">
-        <v>373.9303243750489</v>
+        <v>3984663.166102285</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,7 +2393,7 @@
         <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
         <v>14</v>
@@ -2408,22 +2405,22 @@
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G57">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H57">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I57">
-        <v>-1558.695329251157</v>
+        <v>1114921.042261504</v>
       </c>
       <c r="J57">
-        <v>1670.529629867948</v>
+        <v>4843123.651064178</v>
       </c>
       <c r="K57">
-        <v>729.2147687416846</v>
+        <v>3984951.812640262</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,7 +2428,7 @@
         <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
         <v>14</v>
@@ -2443,22 +2440,22 @@
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G58">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H58">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I58">
-        <v>-1525.043247327028</v>
+        <v>1114952.132641517</v>
       </c>
       <c r="J58">
-        <v>1627.814511682995</v>
+        <v>4843074.999499252</v>
       </c>
       <c r="K58">
-        <v>1065.85333309991</v>
+        <v>3985225.310559162</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,7 +2463,7 @@
         <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
         <v>14</v>
@@ -2478,22 +2475,22 @@
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G59">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H59">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I59">
-        <v>-1490.562513844865</v>
+        <v>1114983.988593536</v>
       </c>
       <c r="J59">
-        <v>1585.099393498042</v>
+        <v>4843026.347934327</v>
       </c>
       <c r="K59">
-        <v>1383.846017449722</v>
+        <v>3985483.659858984</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,7 +2498,7 @@
         <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
         <v>14</v>
@@ -2513,22 +2510,22 @@
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G60">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H60">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I60">
-        <v>-1455.232724022397</v>
+        <v>1115016.628969067</v>
       </c>
       <c r="J60">
-        <v>1542.384275313089</v>
+        <v>4842977.696369401</v>
       </c>
       <c r="K60">
-        <v>1683.192821791124</v>
+        <v>3985726.860539728</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,7 +2533,7 @@
         <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2548,22 +2545,22 @@
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G61">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H61">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I61">
-        <v>-1419.032970628361</v>
+        <v>1115050.073083816</v>
       </c>
       <c r="J61">
-        <v>1499.669157128136</v>
+        <v>4842929.044804474</v>
       </c>
       <c r="K61">
-        <v>1963.893746124113</v>
+        <v>3985954.912601394</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,7 +2568,7 @@
         <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2583,22 +2580,22 @@
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G62">
-        <v>-94.79817461469069</v>
+        <v>4841118.104540834</v>
       </c>
       <c r="H62">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I62">
-        <v>-1381.941831610159</v>
+        <v>1115084.340729123</v>
       </c>
       <c r="J62">
-        <v>1456.954038943182</v>
+        <v>4842880.393239548</v>
       </c>
       <c r="K62">
-        <v>2225.948790448691</v>
+        <v>3986167.816043983</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,7 +2603,7 @@
         <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2618,22 +2615,22 @@
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>234.0225073314187</v>
+        <v>1116577.496356785</v>
       </c>
       <c r="G63">
-        <v>-79.14432759274204</v>
+        <v>4841134.617338014</v>
       </c>
       <c r="H63">
-        <v>1609.05693739334</v>
+        <v>3985229.495766622</v>
       </c>
       <c r="I63">
-        <v>-1343.937357416857</v>
+        <v>1115119.452183669</v>
       </c>
       <c r="J63">
-        <v>1414.238920758229</v>
+        <v>4842831.741674623</v>
       </c>
       <c r="K63">
-        <v>2469.357954764856</v>
+        <v>3986365.570867493</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,7 +2638,7 @@
         <v>82</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>14</v>
@@ -2653,22 +2650,22 @@
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>181.6287659261316</v>
+        <v>1116528.81583694</v>
       </c>
       <c r="G64">
-        <v>-63.49048057079339</v>
+        <v>4841151.130135193</v>
       </c>
       <c r="H64">
-        <v>1982.347319434652</v>
+        <v>3985428.750231765</v>
       </c>
       <c r="I64">
-        <v>-1304.997058010019</v>
+        <v>1115155.428225483</v>
       </c>
       <c r="J64">
-        <v>1371.523802573276</v>
+        <v>4842783.090109697</v>
       </c>
       <c r="K64">
-        <v>2694.12123907261</v>
+        <v>3986548.177071926</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,7 +2673,7 @@
         <v>82</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
         <v>14</v>
@@ -2688,22 +2685,22 @@
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>150.8500712043204</v>
+        <v>1116500.218473609</v>
       </c>
       <c r="G65">
-        <v>-47.83663354884475</v>
+        <v>4841167.642932374</v>
       </c>
       <c r="H65">
-        <v>2204.698161773362</v>
+        <v>3985547.436381464</v>
       </c>
       <c r="I65">
-        <v>-1265.097889554707</v>
+        <v>1115192.290144228</v>
       </c>
       <c r="J65">
-        <v>1328.808684388323</v>
+        <v>4842734.43854477</v>
       </c>
       <c r="K65">
-        <v>2900.238643371952</v>
+        <v>3986715.634657281</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,7 +2708,7 @@
         <v>82</v>
       </c>
       <c r="B66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C66" t="s">
         <v>14</v>
@@ -2723,22 +2720,22 @@
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>131.4203010566223</v>
+        <v>1116482.165719866</v>
       </c>
       <c r="G66">
-        <v>-32.1827865268961</v>
+        <v>4841184.155729555</v>
       </c>
       <c r="H66">
-        <v>2363.597280673917</v>
+        <v>3985632.253350964</v>
       </c>
       <c r="I66">
-        <v>-1224.216240782744</v>
+        <v>1115230.059753811</v>
       </c>
       <c r="J66">
-        <v>1286.09356620337</v>
+        <v>4842685.786979844</v>
       </c>
       <c r="K66">
-        <v>3087.710167662883</v>
+        <v>3986867.943623559</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,7 +2743,7 @@
         <v>82</v>
       </c>
       <c r="B67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" t="s">
         <v>14</v>
@@ -2758,22 +2755,22 @@
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>117.870058225685</v>
+        <v>1116469.575802687</v>
       </c>
       <c r="G67">
-        <v>-16.52893950494745</v>
+        <v>4841200.668526733</v>
       </c>
       <c r="H67">
-        <v>2487.331939431515</v>
+        <v>3985698.300279673</v>
       </c>
       <c r="I67">
-        <v>-1182.327919020199</v>
+        <v>1115268.759405281</v>
       </c>
       <c r="J67">
-        <v>1243.378448018417</v>
+        <v>4842637.135414918</v>
       </c>
       <c r="K67">
-        <v>3256.535811945402</v>
+        <v>3987005.103970759</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,7 +2778,7 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
         <v>14</v>
@@ -2793,22 +2790,22 @@
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>107.7611712903317</v>
+        <v>1116460.183347445</v>
       </c>
       <c r="G68">
-        <v>-0.8750924829988175</v>
+        <v>4841217.181323914</v>
       </c>
       <c r="H68">
-        <v>2588.68022268897</v>
+        <v>3985752.397837352</v>
       </c>
       <c r="I68">
-        <v>-1139.408135870802</v>
+        <v>1115308.412000066</v>
       </c>
       <c r="J68">
-        <v>1200.663329833464</v>
+        <v>4842588.483849993</v>
       </c>
       <c r="K68">
-        <v>3406.715576219508</v>
+        <v>3987127.115698881</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,7 +2813,7 @@
         <v>82</v>
       </c>
       <c r="B69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C69" t="s">
         <v>14</v>
@@ -2828,22 +2825,22 @@
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>99.85743337109463</v>
+        <v>1116452.839759064</v>
       </c>
       <c r="G69">
-        <v>14.77875453894983</v>
+        <v>4841233.694121093</v>
       </c>
       <c r="H69">
-        <v>2674.514820541924</v>
+        <v>3985798.214519776</v>
       </c>
       <c r="I69">
-        <v>-1095.431492546826</v>
+        <v>1115349.041003519</v>
       </c>
       <c r="J69">
-        <v>1157.948211648511</v>
+        <v>4842539.832285066</v>
       </c>
       <c r="K69">
-        <v>3538.249460485203</v>
+        <v>3987233.978807925</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,7 +2848,7 @@
         <v>82</v>
       </c>
       <c r="B70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C70" t="s">
         <v>14</v>
@@ -2863,22 +2860,22 @@
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>93.46273390440358</v>
+        <v>1116446.89826136</v>
       </c>
       <c r="G70">
-        <v>30.43260156089848</v>
+        <v>4841250.206918274</v>
       </c>
       <c r="H70">
-        <v>2748.960701369343</v>
+        <v>3985837.952147318</v>
       </c>
       <c r="I70">
-        <v>-1050.371964838767</v>
+        <v>1115390.670458803</v>
       </c>
       <c r="J70">
-        <v>1115.233093463558</v>
+        <v>4842491.18072014</v>
       </c>
       <c r="K70">
-        <v>3651.137464742486</v>
+        <v>3987325.69329789</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,7 +2883,7 @@
         <v>82</v>
       </c>
       <c r="B71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>14</v>
@@ -2898,22 +2895,22 @@
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>88.15285478798258</v>
+        <v>1116441.964701191</v>
       </c>
       <c r="G71">
-        <v>46.08644858284712</v>
+        <v>4841266.719715454</v>
       </c>
       <c r="H71">
-        <v>2814.689047444711</v>
+        <v>3985873.036540251</v>
       </c>
       <c r="I71">
-        <v>-1004.202887714903</v>
+        <v>1115433.325001125</v>
       </c>
       <c r="J71">
-        <v>1072.517975278605</v>
+        <v>4842442.529155214</v>
       </c>
       <c r="K71">
-        <v>3745.379588991359</v>
+        <v>3987402.259168779</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,7 +2918,7 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C72" t="s">
         <v>14</v>
@@ -2933,22 +2930,22 @@
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>83.65313175557881</v>
+        <v>1116437.783880152</v>
       </c>
       <c r="G72">
-        <v>61.74029560479578</v>
+        <v>4841283.232512633</v>
       </c>
       <c r="H72">
-        <v>2873.529143623548</v>
+        <v>3985904.444131921</v>
       </c>
       <c r="I72">
-        <v>-956.8969395416359</v>
+        <v>1115477.02987231</v>
       </c>
       <c r="J72">
-        <v>1029.802857093651</v>
+        <v>4842393.877590288</v>
       </c>
       <c r="K72">
-        <v>3820.975833231818</v>
+        <v>3987463.67642059</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,7 +2953,7 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
         <v>14</v>
@@ -2968,22 +2965,22 @@
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>79.77705935779024</v>
+        <v>1116434.182510709</v>
       </c>
       <c r="G73">
-        <v>77.39414262674441</v>
+        <v>4841299.745309814</v>
       </c>
       <c r="H73">
-        <v>2926.788775797661</v>
+        <v>3985932.872990613</v>
       </c>
       <c r="I73">
-        <v>-908.4261259152762</v>
+        <v>1115521.810935741</v>
       </c>
       <c r="J73">
-        <v>987.0877389086985</v>
+        <v>4842345.226025362</v>
       </c>
       <c r="K73">
-        <v>3877.926197463866</v>
+        <v>3987509.945053323</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,7 +2988,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>14</v>
@@ -3003,22 +3000,22 @@
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>76.39304787113738</v>
+        <v>1116431.038329097</v>
       </c>
       <c r="G74">
-        <v>93.04798964869305</v>
+        <v>4841316.258106994</v>
       </c>
       <c r="H74">
-        <v>2975.43536848945</v>
+        <v>3985958.839506962</v>
       </c>
       <c r="I74">
-        <v>-858.7617630956985</v>
+        <v>1115567.69469166</v>
       </c>
       <c r="J74">
-        <v>944.3726207237454</v>
+        <v>4842296.574460436</v>
       </c>
       <c r="K74">
-        <v>3916.230681687502</v>
+        <v>3987541.065066978</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,7 +3023,7 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C75" t="s">
         <v>14</v>
@@ -3038,22 +3035,22 @@
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>73.40528556694387</v>
+        <v>1116428.262313904</v>
       </c>
       <c r="G75">
-        <v>108.7018366706417</v>
+        <v>4841332.770904173</v>
       </c>
       <c r="H75">
-        <v>3020.20472262535</v>
+        <v>3985982.736435847</v>
       </c>
       <c r="I75">
-        <v>-807.8744610320643</v>
+        <v>1115614.708292857</v>
       </c>
       <c r="J75">
-        <v>901.6575025387924</v>
+        <v>4842247.92289551</v>
       </c>
       <c r="K75">
-        <v>3935.889285902727</v>
+        <v>3987557.036461555</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,7 +3058,7 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
         <v>14</v>
@@ -3073,22 +3070,22 @@
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>70.74215282830386</v>
+        <v>1116425.787921302</v>
       </c>
       <c r="G76">
-        <v>124.3556836925903</v>
+        <v>4841349.283701354</v>
       </c>
       <c r="H76">
-        <v>3061.669522865183</v>
+        <v>3986004.869464158</v>
       </c>
       <c r="I76">
-        <v>-755.7341059705726</v>
+        <v>1115662.879560732</v>
       </c>
       <c r="J76">
-        <v>858.9423843538392</v>
+        <v>4842199.271330584</v>
       </c>
       <c r="K76">
-        <v>3936.902010109539</v>
+        <v>3987557.859237055</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,7 +3093,7 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
         <v>14</v>
@@ -3108,22 +3105,22 @@
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>68.34890747674737</v>
+        <v>1116423.564288771</v>
       </c>
       <c r="G77">
-        <v>140.009530714539</v>
+        <v>4841365.796498534</v>
       </c>
       <c r="H77">
-        <v>3100.284251562147</v>
+        <v>3986025.481184908</v>
       </c>
       <c r="I77">
-        <v>-702.3098426339391</v>
+        <v>1115712.237001761</v>
       </c>
       <c r="J77">
-        <v>816.2272661688861</v>
+        <v>4842150.619765658</v>
       </c>
       <c r="K77">
-        <v>3919.26885430794</v>
+        <v>3987543.533393477</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,7 +3128,7 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>14</v>
@@ -3143,22 +3140,22 @@
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>66.18289973040483</v>
+        <v>1116421.551789181</v>
       </c>
       <c r="G78">
-        <v>155.6633777364877</v>
+        <v>4841382.309295713</v>
       </c>
       <c r="H78">
-        <v>3136.415634587418</v>
+        <v>3986044.767348565</v>
       </c>
       <c r="I78">
-        <v>-647.5700559620615</v>
+        <v>1115762.809824368</v>
       </c>
       <c r="J78">
-        <v>773.5121479839331</v>
+        <v>4842101.968200732</v>
       </c>
       <c r="K78">
-        <v>3882.989818497929</v>
+        <v>3987514.058930821</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,7 +3163,7 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
         <v>14</v>
@@ -3178,22 +3175,22 @@
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>64.21034523716092</v>
+        <v>1116419.719032527</v>
       </c>
       <c r="G79">
-        <v>171.3172247584363</v>
+        <v>4841398.822092894</v>
       </c>
       <c r="H79">
-        <v>3170.363874840066</v>
+        <v>3986062.88819705</v>
       </c>
       <c r="I79">
-        <v>-591.4823524030694</v>
+        <v>1115814.627956205</v>
       </c>
       <c r="J79">
-        <v>730.7970297989799</v>
+        <v>4842053.316635806</v>
       </c>
       <c r="K79">
-        <v>3828.064902679506</v>
+        <v>3987469.435849087</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,7 +3198,7 @@
         <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>14</v>
@@ -3213,22 +3210,22 @@
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>62.40409071047802</v>
+        <v>1116418.040789917</v>
       </c>
       <c r="G80">
-        <v>186.9710717803849</v>
+        <v>4841415.334890073</v>
       </c>
       <c r="H80">
-        <v>3202.377828377042</v>
+        <v>3986079.976564434</v>
       </c>
       <c r="I80">
-        <v>-534.0135407436784</v>
+        <v>1115867.722061867</v>
       </c>
       <c r="J80">
-        <v>688.0819116140268</v>
+        <v>4842004.665070879</v>
       </c>
       <c r="K80">
-        <v>3754.494106852672</v>
+        <v>3987409.664148276</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,7 +3233,7 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
         <v>14</v>
@@ -3248,22 +3245,22 @@
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>60.74203075782234</v>
+        <v>1116416.496522599</v>
       </c>
       <c r="G81">
-        <v>202.6249188023336</v>
+        <v>4841431.847687254</v>
       </c>
       <c r="H81">
-        <v>3232.666085330488</v>
+        <v>3986096.143791691</v>
       </c>
       <c r="I81">
-        <v>-475.1296124675125</v>
+        <v>1115922.123561035</v>
       </c>
       <c r="J81">
-        <v>645.3667934290738</v>
+        <v>4841956.013505953</v>
       </c>
       <c r="K81">
-        <v>3662.277431017426</v>
+        <v>3987334.743828387</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,7 +3268,7 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
         <v>14</v>
@@ -3283,22 +3280,22 @@
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>59.20596306868635</v>
+        <v>1116415.069318288</v>
       </c>
       <c r="G82">
-        <v>218.2787658242823</v>
+        <v>4841448.360484433</v>
       </c>
       <c r="H82">
-        <v>3261.405214072269</v>
+        <v>3986111.484127263</v>
       </c>
       <c r="I82">
-        <v>-414.7957216297659</v>
+        <v>1115977.864647072</v>
       </c>
       <c r="J82">
-        <v>602.6516752441206</v>
+        <v>4841907.361941027</v>
       </c>
       <c r="K82">
-        <v>3551.414875173768</v>
+        <v>3987244.67488942</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,7 +3303,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
         <v>14</v>
@@ -3318,22 +3315,22 @@
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>57.78074549220741</v>
+        <v>1116413.745107979</v>
       </c>
       <c r="G83">
-        <v>233.9326128462309</v>
+        <v>4841464.873281613</v>
       </c>
       <c r="H83">
-        <v>3288.745997804396</v>
+        <v>3986126.078056014</v>
       </c>
       <c r="I83">
-        <v>-352.9761642363018</v>
+        <v>1116034.978306071</v>
       </c>
       <c r="J83">
-        <v>559.9365570591675</v>
+        <v>4841858.710376102</v>
       </c>
       <c r="K83">
-        <v>3421.906439321698</v>
+        <v>3987139.457331375</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,7 +3338,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
         <v>14</v>
@@ -3353,22 +3350,22 @@
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>56.45366528425523</v>
+        <v>1116412.512079898</v>
       </c>
       <c r="G84">
-        <v>249.5864598681795</v>
+        <v>4841481.386078794</v>
       </c>
       <c r="H84">
-        <v>3314.818223078918</v>
+        <v>3986139.994855246</v>
       </c>
       <c r="I84">
-        <v>-289.6343571149738</v>
+        <v>1116093.49833638</v>
       </c>
       <c r="J84">
-        <v>517.2214388742145</v>
+        <v>4841810.058811175</v>
       </c>
       <c r="K84">
-        <v>3273.752123461217</v>
+        <v>3987019.091154252</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,7 +3373,7 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C85" t="s">
         <v>14</v>
@@ -3388,22 +3385,22 @@
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>55.21396020730825</v>
+        <v>1116411.360234544</v>
       </c>
       <c r="G85">
-        <v>265.2403068901282</v>
+        <v>4841497.898875974</v>
       </c>
       <c r="H85">
-        <v>3339.734405877322</v>
+        <v>3986153.294583596</v>
       </c>
       <c r="I85">
-        <v>-224.7328162666772</v>
+        <v>1116153.459368597</v>
       </c>
       <c r="J85">
-        <v>474.5063206892613</v>
+        <v>4841761.40724625</v>
       </c>
       <c r="K85">
-        <v>3106.951927592323</v>
+        <v>3986883.576358052</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,7 +3408,7 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C86" t="s">
         <v>14</v>
@@ -3423,22 +3420,22 @@
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>54.05245011205398</v>
+        <v>1116410.281042379</v>
       </c>
       <c r="G86">
-        <v>280.8941539120768</v>
+        <v>4841514.411673153</v>
       </c>
       <c r="H86">
-        <v>3363.592726142543</v>
+        <v>3986166.02964743</v>
       </c>
       <c r="I86">
-        <v>-158.2331346833136</v>
+        <v>1116214.89688607</v>
       </c>
       <c r="J86">
-        <v>431.7912025043084</v>
+        <v>4841712.755681324</v>
       </c>
       <c r="K86">
-        <v>2921.505851715018</v>
+        <v>3986732.912942774</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,7 +3443,7 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C87" t="s">
         <v>14</v>
@@ -3458,22 +3455,22 @@
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>52.96125010540728</v>
+        <v>1116409.267177323</v>
       </c>
       <c r="G87">
-        <v>296.5480009340255</v>
+        <v>4841530.924470333</v>
       </c>
       <c r="H87">
-        <v>3386.479364348802</v>
+        <v>3986178.24604805</v>
       </c>
       <c r="I87">
-        <v>-90.09595961954483</v>
+        <v>1116277.847245889</v>
       </c>
       <c r="J87">
-        <v>389.0760843193552</v>
+        <v>4841664.104116398</v>
       </c>
       <c r="K87">
-        <v>2717.413895829301</v>
+        <v>3986567.100908418</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,7 +3478,7 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C88" t="s">
         <v>14</v>
@@ -3493,22 +3490,22 @@
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>51.93354478838909</v>
+        <v>1116408.312306994</v>
       </c>
       <c r="G88">
-        <v>312.2018479559741</v>
+        <v>4841547.437267513</v>
       </c>
       <c r="H88">
-        <v>3408.470380616039</v>
+        <v>3986189.984384731</v>
       </c>
       <c r="I88">
-        <v>-20.28096930488271</v>
+        <v>1116342.347700406</v>
       </c>
       <c r="J88">
-        <v>346.360966134402</v>
+        <v>4841615.452551471</v>
       </c>
       <c r="K88">
-        <v>2494.676059935172</v>
+        <v>3986386.140254984</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,7 +3513,7 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C89" t="s">
         <v>14</v>
@@ -3528,22 +3525,22 @@
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>50.96340877616755</v>
+        <v>1116407.410925949</v>
       </c>
       <c r="G89">
-        <v>327.8556949779228</v>
+        <v>4841563.950064694</v>
       </c>
       <c r="H89">
-        <v>3429.633239804612</v>
+        <v>3986201.280668781</v>
       </c>
       <c r="I89">
-        <v>51.25315091766479</v>
+        <v>1116408.436419275</v>
       </c>
       <c r="J89">
-        <v>303.645847949449</v>
+        <v>4841566.800986545</v>
       </c>
       <c r="K89">
-        <v>2253.292344032632</v>
+        <v>3986190.030982472</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,7 +3548,7 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
         <v>14</v>
@@ -3563,22 +3560,22 @@
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>50.04566269425291</v>
+        <v>1116406.558221882</v>
       </c>
       <c r="G90">
-        <v>343.5095419998714</v>
+        <v>4841580.462861873</v>
       </c>
       <c r="H90">
-        <v>3450.028059728076</v>
+        <v>3986212.166989808</v>
       </c>
       <c r="I90">
-        <v>124.5487330405085</v>
+        <v>1116476.152512046</v>
       </c>
       <c r="J90">
-        <v>260.9307297644959</v>
+        <v>4841518.149421619</v>
       </c>
       <c r="K90">
-        <v>1993.26274812168</v>
+        <v>3985978.773090883</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,7 +3583,7 @@
         <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
         <v>14</v>
@@ -3598,22 +3595,22 @@
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>49.17575665401449</v>
+        <v>1116405.749967363</v>
       </c>
       <c r="G91">
-        <v>359.1633890218201</v>
+        <v>4841596.975659053</v>
       </c>
       <c r="H91">
-        <v>3469.708640698142</v>
+        <v>3986222.672065277</v>
       </c>
       <c r="I91">
-        <v>199.6491514424289</v>
+        <v>1116545.536051305</v>
       </c>
       <c r="J91">
-        <v>218.2156115795429</v>
+        <v>4841469.497856693</v>
       </c>
       <c r="K91">
-        <v>1714.587272202316</v>
+        <v>3985752.366580216</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,7 +3618,7 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
         <v>14</v>
@@ -3633,22 +3630,22 @@
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>48.3496752202207</v>
+        <v>1116404.982431536</v>
       </c>
       <c r="G92">
-        <v>374.8172360437687</v>
+        <v>4841613.488456233</v>
       </c>
       <c r="H92">
-        <v>3488.723320818674</v>
+        <v>3986232.821697037</v>
       </c>
       <c r="I92">
-        <v>276.5988485563776</v>
+        <v>1116616.628096385</v>
       </c>
       <c r="J92">
-        <v>175.5004933945898</v>
+        <v>4841420.846291767</v>
       </c>
       <c r="K92">
-        <v>1417.26591627454</v>
+        <v>3985510.811450471</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,7 +3653,7 @@
         <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>14</v>
@@ -3668,22 +3665,22 @@
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>47.56385933925528</v>
+        <v>1116404.252307583</v>
       </c>
       <c r="G93">
-        <v>390.4710830657173</v>
+        <v>4841630.001253414</v>
       </c>
       <c r="H93">
-        <v>3507.115691263492</v>
+        <v>3986242.63915313</v>
       </c>
       <c r="I93">
-        <v>355.4433611693348</v>
+        <v>1116689.470717672</v>
       </c>
       <c r="J93">
-        <v>132.7853752096366</v>
+        <v>4841372.194726841</v>
       </c>
       <c r="K93">
-        <v>1101.298680338352</v>
+        <v>3985254.107701649</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,7 +3688,7 @@
         <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C94" t="s">
         <v>14</v>
@@ -3703,22 +3700,22 @@
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>46.81514176407592</v>
+        <v>1116403.556652725</v>
       </c>
       <c r="G94">
-        <v>406.124930087666</v>
+        <v>4841646.514050593</v>
       </c>
       <c r="H94">
-        <v>3524.925198173884</v>
+        <v>3986252.145489067</v>
       </c>
       <c r="I94">
-        <v>436.2293473697633</v>
+        <v>1116764.107021495</v>
       </c>
       <c r="J94">
-        <v>90.07025702468361</v>
+        <v>4841323.543161916</v>
       </c>
       <c r="K94">
-        <v>766.6855643937531</v>
+        <v>3984982.255333749</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,7 +3723,7 @@
         <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -3738,22 +3735,22 @@
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>46.10069330318849</v>
+        <v>1116402.892838278</v>
       </c>
       <c r="G95">
-        <v>421.7787771096146</v>
+        <v>4841663.026847773</v>
       </c>
       <c r="H95">
-        <v>3542.187652081331</v>
+        <v>3986261.359819749</v>
       </c>
       <c r="I95">
-        <v>519.0046141586346</v>
+        <v>1116840.581175635</v>
       </c>
       <c r="J95">
-        <v>47.35513883973045</v>
+        <v>4841274.89159699</v>
       </c>
       <c r="K95">
-        <v>413.4265684407415</v>
+        <v>3984695.25434677</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,7 +3758,7 @@
         <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -3773,22 +3770,22 @@
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>45.41797781339656</v>
+        <v>1116402.258507839</v>
       </c>
       <c r="G96">
-        <v>437.4326241315633</v>
+        <v>4841679.539644954</v>
       </c>
       <c r="H96">
-        <v>3558.935661397691</v>
+        <v>3986270.299550852</v>
       </c>
       <c r="I96">
-        <v>603.8181457403321</v>
+        <v>1116918.938435465</v>
       </c>
       <c r="J96">
-        <v>4.640020654777283</v>
+        <v>4841226.240032063</v>
       </c>
       <c r="K96">
-        <v>41.5216924793183</v>
+        <v>3984393.104740715</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,7 +3793,7 @@
         <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -3808,22 +3805,22 @@
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>44.7647143040345</v>
+        <v>1116401.651542076</v>
       </c>
       <c r="G97">
-        <v>453.0864711535119</v>
+        <v>4841696.052442133</v>
       </c>
       <c r="H97">
-        <v>3575.199003162409</v>
+        <v>3986278.980576725</v>
       </c>
       <c r="I97">
-        <v>690.7201325102099</v>
+        <v>1116999.225170732</v>
       </c>
       <c r="J97">
-        <v>-38.07509753017568</v>
+        <v>4841177.588467137</v>
       </c>
       <c r="K97">
-        <v>-349.0290634905156</v>
+        <v>3984075.806515581</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,7 +3828,7 @@
         <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -3843,22 +3840,22 @@
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>44.13884486209418</v>
+        <v>1116401.070028923</v>
       </c>
       <c r="G98">
-        <v>468.7403181754605</v>
+        <v>4841712.565239313</v>
       </c>
       <c r="H98">
-        <v>3591.004941638501</v>
+        <v>3986287.417450453</v>
       </c>
       <c r="I98">
-        <v>779.7620007559343</v>
+        <v>1117081.488892992</v>
       </c>
       <c r="J98">
-        <v>-80.79021571512885</v>
+        <v>4841128.936902211</v>
       </c>
       <c r="K98">
-        <v>-758.2256994687623</v>
+        <v>3983743.35967137</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,7 +3863,7 @@
         <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -3878,22 +3875,22 @@
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>43.53850737050425</v>
+        <v>1116400.512238232</v>
       </c>
       <c r="G99">
-        <v>484.3941651974093</v>
+        <v>4841729.078036493</v>
       </c>
       <c r="H99">
-        <v>3606.378503320018</v>
+        <v>3986295.623530645</v>
       </c>
       <c r="I99">
-        <v>870.9964430901938</v>
+        <v>1117165.778283732</v>
       </c>
       <c r="J99">
-        <v>-123.505333900082</v>
+        <v>4841080.285337284</v>
       </c>
       <c r="K99">
-        <v>-1186.068215455422</v>
+        <v>3983395.76420808</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,7 +3898,7 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -3913,22 +3910,22 @@
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>42.96201219562086</v>
+        <v>1116399.976600119</v>
       </c>
       <c r="G100">
-        <v>500.0480122193579</v>
+        <v>4841745.590833673</v>
       </c>
       <c r="H100">
-        <v>3621.342715317013</v>
+        <v>3986303.611108684</v>
       </c>
       <c r="I100">
-        <v>964.4774496327863</v>
+        <v>1117252.143223173</v>
       </c>
       <c r="J100">
-        <v>-166.2204520850352</v>
+        <v>4841031.633772358</v>
       </c>
       <c r="K100">
-        <v>-1632.556611450492</v>
+        <v>3983033.020125713</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,7 +3933,7 @@
         <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -3948,22 +3945,22 @@
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>42.40782217916951</v>
+        <v>1116399.461686365</v>
       </c>
       <c r="G101">
-        <v>515.7018592413065</v>
+        <v>4841762.103630854</v>
       </c>
       <c r="H101">
-        <v>3635.918812818918</v>
+        <v>3986311.391519462</v>
       </c>
       <c r="I101">
-        <v>1060.26033996054</v>
+        <v>1117340.634819795</v>
       </c>
       <c r="J101">
-        <v>-208.9355702699879</v>
+        <v>4840982.982207432</v>
       </c>
       <c r="K101">
-        <v>-2097.690887453971</v>
+        <v>3982655.127424269</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,7 +3968,7 @@
         <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -3983,22 +3980,22 @@
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>41.87453539509129</v>
+        <v>1116398.9661944</v>
       </c>
       <c r="G102">
-        <v>531.3557062632552</v>
+        <v>4841778.616428033</v>
       </c>
       <c r="H102">
-        <v>3650.126420327969</v>
+        <v>3986318.97523812</v>
       </c>
       <c r="I102">
-        <v>1158.401795843973</v>
+        <v>1117431.305440572</v>
       </c>
       <c r="J102">
-        <v>-251.6506884549411</v>
+        <v>4840934.330642506</v>
       </c>
       <c r="K102">
-        <v>-2581.471043465865</v>
+        <v>3982262.086103746</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,7 +4003,7 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4018,22 +4015,22 @@
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>41.36087023088723</v>
+        <v>1116398.488933442</v>
       </c>
       <c r="G103">
-        <v>547.0095532852038</v>
+        <v>4841795.129225213</v>
       </c>
       <c r="H103">
-        <v>3663.983710544278</v>
+        <v>3986326.37196486</v>
       </c>
       <c r="I103">
-        <v>1258.959894790051</v>
+        <v>1117524.20874197</v>
       </c>
       <c r="J103">
-        <v>-294.3658066398943</v>
+        <v>4840885.679077581</v>
       </c>
       <c r="K103">
-        <v>-3083.897079486172</v>
+        <v>3981853.896164145</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,7 +4038,7 @@
         <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C104" t="s">
         <v>14</v>
@@ -4053,22 +4050,22 @@
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>40.86565243204723</v>
+        <v>1116398.028812457</v>
       </c>
       <c r="G104">
-        <v>562.6634003071524</v>
+        <v>4841811.642022394</v>
       </c>
       <c r="H104">
-        <v>3677.507544130138</v>
+        <v>3986333.590699543</v>
       </c>
       <c r="I104">
-        <v>1361.994144410922</v>
+        <v>1117619.399701696</v>
       </c>
       <c r="J104">
-        <v>-337.0809248248474</v>
+        <v>4840837.027512655</v>
       </c>
       <c r="K104">
-        <v>-3604.96899551489</v>
+        <v>3981430.557605467</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,7 +4073,7 @@
         <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C105" t="s">
         <v>14</v>
@@ -4088,22 +4085,22 @@
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>40.38780381146498</v>
+        <v>1116397.584829672</v>
       </c>
       <c r="G105">
-        <v>578.3172473291012</v>
+        <v>4841828.154819573</v>
       </c>
       <c r="H105">
-        <v>3690.713593050025</v>
+        <v>3986340.639807532</v>
       </c>
       <c r="I105">
-        <v>1467.565517638936</v>
+        <v>1117716.934651231</v>
       </c>
       <c r="J105">
-        <v>-379.7960430098006</v>
+        <v>4840788.375947729</v>
       </c>
       <c r="K105">
-        <v>-4144.686791552019</v>
+        <v>3980992.070427711</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,7 +4108,7 @@
         <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C106" t="s">
         <v>14</v>
@@ -4123,22 +4120,22 @@
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>39.92633237676791</v>
+        <v>1116397.156063397</v>
       </c>
       <c r="G106">
-        <v>593.9710943510497</v>
+        <v>4841844.667616753</v>
       </c>
       <c r="H106">
-        <v>3703.616449749341</v>
+        <v>3986347.527077963</v>
       </c>
       <c r="I106">
-        <v>1575.736488808805</v>
+        <v>1117816.871309168</v>
       </c>
       <c r="J106">
-        <v>-422.5111611947534</v>
+        <v>4840739.724382803</v>
       </c>
       <c r="K106">
-        <v>-4703.050467597556</v>
+        <v>3980538.434630878</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,7 +4143,7 @@
         <v>82</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C107" t="s">
         <v>14</v>
@@ -4158,1877 +4155,22 @@
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>39.4803236698477</v>
+        <v>1116396.741663983</v>
       </c>
       <c r="G107">
-        <v>609.6249413729984</v>
+        <v>4841861.180413933</v>
       </c>
       <c r="H107">
-        <v>3716.229724079278</v>
+        <v>3986354.259775485</v>
       </c>
       <c r="I107">
-        <v>1686.571070628265</v>
+        <v>1117919.268815366</v>
       </c>
       <c r="J107">
-        <v>-465.2262793797066</v>
+        <v>4840691.072817876</v>
       </c>
       <c r="K107">
-        <v>-5280.060023651509</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11">
-      <c r="A108">
-        <v>82</v>
-      </c>
-      <c r="B108" t="s">
-        <v>12</v>
-      </c>
-      <c r="C108" t="s">
-        <v>15</v>
-      </c>
-      <c r="D108" t="s">
-        <v>17</v>
-      </c>
-      <c r="E108">
-        <v>152.142</v>
-      </c>
-      <c r="F108">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G108">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H108">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I108">
-        <v>-1325.993689776952</v>
-      </c>
-      <c r="J108">
-        <v>1403.135794887882</v>
-      </c>
-      <c r="K108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11">
-      <c r="A109">
-        <v>82</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109">
-        <v>153.142</v>
-      </c>
-      <c r="F109">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G109">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H109">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I109">
-        <v>-1299.815043567876</v>
-      </c>
-      <c r="J109">
-        <v>1369.003402422339</v>
-      </c>
-      <c r="K109">
-        <v>299.9508156884563</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110">
-        <v>82</v>
-      </c>
-      <c r="B110" t="s">
-        <v>12</v>
-      </c>
-      <c r="C110" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" t="s">
-        <v>17</v>
-      </c>
-      <c r="E110">
-        <v>154.142</v>
-      </c>
-      <c r="F110">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G110">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H110">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I110">
-        <v>-1272.991772279814</v>
-      </c>
-      <c r="J110">
-        <v>1334.871009956795</v>
-      </c>
-      <c r="K110">
-        <v>584.9447087815066</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11">
-      <c r="A111">
-        <v>82</v>
-      </c>
-      <c r="B111" t="s">
-        <v>12</v>
-      </c>
-      <c r="C111" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" t="s">
-        <v>17</v>
-      </c>
-      <c r="E111">
-        <v>155.142</v>
-      </c>
-      <c r="F111">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G111">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H111">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I111">
-        <v>-1245.50800261324</v>
-      </c>
-      <c r="J111">
-        <v>1300.738617491251</v>
-      </c>
-      <c r="K111">
-        <v>854.981679279153</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11">
-      <c r="A112">
-        <v>82</v>
-      </c>
-      <c r="B112" t="s">
-        <v>12</v>
-      </c>
-      <c r="C112" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" t="s">
-        <v>17</v>
-      </c>
-      <c r="E112">
-        <v>156.142</v>
-      </c>
-      <c r="F112">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G112">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H112">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I112">
-        <v>-1217.347470403232</v>
-      </c>
-      <c r="J112">
-        <v>1266.606225025708</v>
-      </c>
-      <c r="K112">
-        <v>1110.061727181394</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11">
-      <c r="A113">
-        <v>82</v>
-      </c>
-      <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" t="s">
-        <v>17</v>
-      </c>
-      <c r="E113">
-        <v>157.142</v>
-      </c>
-      <c r="F113">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G113">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H113">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I113">
-        <v>-1188.493510994767</v>
-      </c>
-      <c r="J113">
-        <v>1232.473832560164</v>
-      </c>
-      <c r="K113">
-        <v>1350.184852488231</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11">
-      <c r="A114">
-        <v>82</v>
-      </c>
-      <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" t="s">
-        <v>17</v>
-      </c>
-      <c r="E114">
-        <v>158.142</v>
-      </c>
-      <c r="F114">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G114">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H114">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I114">
-        <v>-1158.929049381024</v>
-      </c>
-      <c r="J114">
-        <v>1198.34144009462</v>
-      </c>
-      <c r="K114">
-        <v>1575.351055199664</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11">
-      <c r="A115">
-        <v>82</v>
-      </c>
-      <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" t="s">
-        <v>15</v>
-      </c>
-      <c r="D115" t="s">
-        <v>17</v>
-      </c>
-      <c r="E115">
-        <v>159.142</v>
-      </c>
-      <c r="F115">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G115">
-        <v>-98.15836961923333</v>
-      </c>
-      <c r="H115">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I115">
-        <v>-1128.636590098849</v>
-      </c>
-      <c r="J115">
-        <v>1164.209047629077</v>
-      </c>
-      <c r="K115">
-        <v>1785.560335315691</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11">
-      <c r="A116">
-        <v>82</v>
-      </c>
-      <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" t="s">
-        <v>17</v>
-      </c>
-      <c r="E116">
-        <v>160.142</v>
-      </c>
-      <c r="F116">
-        <v>134.4966593818219</v>
-      </c>
-      <c r="G116">
-        <v>-81.9496598187679</v>
-      </c>
-      <c r="H116">
-        <v>262.0069476085031</v>
-      </c>
-      <c r="I116">
-        <v>-1097.598206875402</v>
-      </c>
-      <c r="J116">
-        <v>1130.076655163533</v>
-      </c>
-      <c r="K116">
-        <v>1980.812692836313</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11">
-      <c r="A117">
-        <v>82</v>
-      </c>
-      <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" t="s">
-        <v>15</v>
-      </c>
-      <c r="D117" t="s">
-        <v>17</v>
-      </c>
-      <c r="E117">
-        <v>161.142</v>
-      </c>
-      <c r="F117">
-        <v>104.3850975842782</v>
-      </c>
-      <c r="G117">
-        <v>-65.74095001830247</v>
-      </c>
-      <c r="H117">
-        <v>322.7907963943013</v>
-      </c>
-      <c r="I117">
-        <v>-1065.795532019866</v>
-      </c>
-      <c r="J117">
-        <v>1095.944262697989</v>
-      </c>
-      <c r="K117">
-        <v>2161.10812776153</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11">
-      <c r="A118">
-        <v>82</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>15</v>
-      </c>
-      <c r="D118" t="s">
-        <v>17</v>
-      </c>
-      <c r="E118">
-        <v>162.142</v>
-      </c>
-      <c r="F118">
-        <v>86.69606558722306</v>
-      </c>
-      <c r="G118">
-        <v>-49.53224021783704</v>
-      </c>
-      <c r="H118">
-        <v>358.9967653351651</v>
-      </c>
-      <c r="I118">
-        <v>-1033.209745553937</v>
-      </c>
-      <c r="J118">
-        <v>1061.811870232446</v>
-      </c>
-      <c r="K118">
-        <v>2326.446640091344</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11">
-      <c r="A119">
-        <v>82</v>
-      </c>
-      <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" t="s">
-        <v>15</v>
-      </c>
-      <c r="D119" t="s">
-        <v>17</v>
-      </c>
-      <c r="E119">
-        <v>163.142</v>
-      </c>
-      <c r="F119">
-        <v>75.52945085763548</v>
-      </c>
-      <c r="G119">
-        <v>-33.32353041737161</v>
-      </c>
-      <c r="H119">
-        <v>384.8707242693093</v>
-      </c>
-      <c r="I119">
-        <v>-999.8215640746585</v>
-      </c>
-      <c r="J119">
-        <v>1027.679477766902</v>
-      </c>
-      <c r="K119">
-        <v>2476.828229825752</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11">
-      <c r="A120">
-        <v>82</v>
-      </c>
-      <c r="B120" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" t="s">
-        <v>15</v>
-      </c>
-      <c r="D120" t="s">
-        <v>17</v>
-      </c>
-      <c r="E120">
-        <v>164.142</v>
-      </c>
-      <c r="F120">
-        <v>67.7418990731714</v>
-      </c>
-      <c r="G120">
-        <v>-17.11482061690618</v>
-      </c>
-      <c r="H120">
-        <v>405.0187622293438</v>
-      </c>
-      <c r="I120">
-        <v>-965.6112293430165</v>
-      </c>
-      <c r="J120">
-        <v>993.5470853013584</v>
-      </c>
-      <c r="K120">
-        <v>2612.252896964756</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11">
-      <c r="A121">
-        <v>82</v>
-      </c>
-      <c r="B121" t="s">
-        <v>12</v>
-      </c>
-      <c r="C121" t="s">
-        <v>15</v>
-      </c>
-      <c r="D121" t="s">
-        <v>17</v>
-      </c>
-      <c r="E121">
-        <v>165.142</v>
-      </c>
-      <c r="F121">
-        <v>61.93215223139389</v>
-      </c>
-      <c r="G121">
-        <v>-0.9061108164407545</v>
-      </c>
-      <c r="H121">
-        <v>421.5215681428903</v>
-      </c>
-      <c r="I121">
-        <v>-930.5584965915388</v>
-      </c>
-      <c r="J121">
-        <v>959.4146928358148</v>
-      </c>
-      <c r="K121">
-        <v>2732.720641508355</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11">
-      <c r="A122">
-        <v>82</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" t="s">
-        <v>17</v>
-      </c>
-      <c r="E122">
-        <v>166.142</v>
-      </c>
-      <c r="F122">
-        <v>57.38974150821767</v>
-      </c>
-      <c r="G122">
-        <v>15.30259898402468</v>
-      </c>
-      <c r="H122">
-        <v>435.4982401052189</v>
-      </c>
-      <c r="I122">
-        <v>-894.6426225439786</v>
-      </c>
-      <c r="J122">
-        <v>925.2823003702711</v>
-      </c>
-      <c r="K122">
-        <v>2838.231463456549</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11">
-      <c r="A123">
-        <v>82</v>
-      </c>
-      <c r="B123" t="s">
-        <v>12</v>
-      </c>
-      <c r="C123" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" t="s">
-        <v>17</v>
-      </c>
-      <c r="E123">
-        <v>167.142</v>
-      </c>
-      <c r="F123">
-        <v>53.71460048939825</v>
-      </c>
-      <c r="G123">
-        <v>31.51130878449012</v>
-      </c>
-      <c r="H123">
-        <v>447.6204575012155</v>
-      </c>
-      <c r="I123">
-        <v>-857.8423531399952</v>
-      </c>
-      <c r="J123">
-        <v>891.1499079047275</v>
-      </c>
-      <c r="K123">
-        <v>2928.785362809338</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11">
-      <c r="A124">
-        <v>82</v>
-      </c>
-      <c r="B124" t="s">
-        <v>12</v>
-      </c>
-      <c r="C124" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" t="s">
-        <v>17</v>
-      </c>
-      <c r="E124">
-        <v>168.142</v>
-      </c>
-      <c r="F124">
-        <v>50.662923917672</v>
-      </c>
-      <c r="G124">
-        <v>47.72001858495553</v>
-      </c>
-      <c r="H124">
-        <v>458.3231759236355</v>
-      </c>
-      <c r="I124">
-        <v>-820.1359109575662</v>
-      </c>
-      <c r="J124">
-        <v>857.0175154391837</v>
-      </c>
-      <c r="K124">
-        <v>3004.382339566723</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11">
-      <c r="A125">
-        <v>82</v>
-      </c>
-      <c r="B125" t="s">
-        <v>12</v>
-      </c>
-      <c r="C125" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" t="s">
-        <v>17</v>
-      </c>
-      <c r="E125">
-        <v>169.142</v>
-      </c>
-      <c r="F125">
-        <v>48.07685763326681</v>
-      </c>
-      <c r="G125">
-        <v>63.92872838542098</v>
-      </c>
-      <c r="H125">
-        <v>467.9042626077292</v>
-      </c>
-      <c r="I125">
-        <v>-781.5009823256853</v>
-      </c>
-      <c r="J125">
-        <v>822.88512297364</v>
-      </c>
-      <c r="K125">
-        <v>3065.022393728703</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11">
-      <c r="A126">
-        <v>82</v>
-      </c>
-      <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" t="s">
-        <v>15</v>
-      </c>
-      <c r="D126" t="s">
-        <v>17</v>
-      </c>
-      <c r="E126">
-        <v>170.142</v>
-      </c>
-      <c r="F126">
-        <v>45.84921382682571</v>
-      </c>
-      <c r="G126">
-        <v>80.13743818588641</v>
-      </c>
-      <c r="H126">
-        <v>476.5766677491513</v>
-      </c>
-      <c r="I126">
-        <v>-741.9147041197269</v>
-      </c>
-      <c r="J126">
-        <v>788.7527305080964</v>
-      </c>
-      <c r="K126">
-        <v>3110.705525295278</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11">
-      <c r="A127">
-        <v>82</v>
-      </c>
-      <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" t="s">
-        <v>17</v>
-      </c>
-      <c r="E127">
-        <v>171.142</v>
-      </c>
-      <c r="F127">
-        <v>43.90436567758354</v>
-      </c>
-      <c r="G127">
-        <v>96.34614798635182</v>
-      </c>
-      <c r="H127">
-        <v>484.4979196119834</v>
-      </c>
-      <c r="I127">
-        <v>-701.3536502316553</v>
-      </c>
-      <c r="J127">
-        <v>754.6203380425527</v>
-      </c>
-      <c r="K127">
-        <v>3141.431734266448</v>
-      </c>
-    </row>
-    <row r="128" spans="1:11">
-      <c r="A128">
-        <v>82</v>
-      </c>
-      <c r="B128" t="s">
-        <v>12</v>
-      </c>
-      <c r="C128" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" t="s">
-        <v>17</v>
-      </c>
-      <c r="E128">
-        <v>172.142</v>
-      </c>
-      <c r="F128">
-        <v>42.1872485783642</v>
-      </c>
-      <c r="G128">
-        <v>112.5548577868173</v>
-      </c>
-      <c r="H128">
-        <v>491.7878305846513</v>
-      </c>
-      <c r="I128">
-        <v>-659.7938177070747</v>
-      </c>
-      <c r="J128">
-        <v>720.4879455770092</v>
-      </c>
-      <c r="K128">
-        <v>3157.201020642214</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11">
-      <c r="A129">
-        <v>82</v>
-      </c>
-      <c r="B129" t="s">
-        <v>12</v>
-      </c>
-      <c r="C129" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" t="s">
-        <v>17</v>
-      </c>
-      <c r="E129">
-        <v>173.142</v>
-      </c>
-      <c r="F129">
-        <v>40.65670153431347</v>
-      </c>
-      <c r="G129">
-        <v>128.7635675872827</v>
-      </c>
-      <c r="H129">
-        <v>498.5396524074606</v>
-      </c>
-      <c r="I129">
-        <v>-617.2106125409214</v>
-      </c>
-      <c r="J129">
-        <v>686.3555531114654</v>
-      </c>
-      <c r="K129">
-        <v>3158.013384422575</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11">
-      <c r="A130">
-        <v>82</v>
-      </c>
-      <c r="B130" t="s">
-        <v>12</v>
-      </c>
-      <c r="C130" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" t="s">
-        <v>17</v>
-      </c>
-      <c r="E130">
-        <v>174.142</v>
-      </c>
-      <c r="F130">
-        <v>39.28126329747082</v>
-      </c>
-      <c r="G130">
-        <v>144.9722773877481</v>
-      </c>
-      <c r="H130">
-        <v>504.8273896301171</v>
-      </c>
-      <c r="I130">
-        <v>-573.5788351233821</v>
-      </c>
-      <c r="J130">
-        <v>652.2231606459217</v>
-      </c>
-      <c r="K130">
-        <v>3143.868825607531</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11">
-      <c r="A131">
-        <v>82</v>
-      </c>
-      <c r="B131" t="s">
-        <v>12</v>
-      </c>
-      <c r="C131" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" t="s">
-        <v>17</v>
-      </c>
-      <c r="E131">
-        <v>175.142</v>
-      </c>
-      <c r="F131">
-        <v>38.03642232298431</v>
-      </c>
-      <c r="G131">
-        <v>161.1809871882135</v>
-      </c>
-      <c r="H131">
-        <v>510.7107571849415</v>
-      </c>
-      <c r="I131">
-        <v>-528.8726653274346</v>
-      </c>
-      <c r="J131">
-        <v>618.0907681803782</v>
-      </c>
-      <c r="K131">
-        <v>3114.767344197082</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11">
-      <c r="A132">
-        <v>82</v>
-      </c>
-      <c r="B132" t="s">
-        <v>12</v>
-      </c>
-      <c r="C132" t="s">
-        <v>15</v>
-      </c>
-      <c r="D132" t="s">
-        <v>17</v>
-      </c>
-      <c r="E132">
-        <v>176.142</v>
-      </c>
-      <c r="F132">
-        <v>36.90276217714974</v>
-      </c>
-      <c r="G132">
-        <v>177.389696988679</v>
-      </c>
-      <c r="H132">
-        <v>516.2386378947974</v>
-      </c>
-      <c r="I132">
-        <v>-483.0656472291842</v>
-      </c>
-      <c r="J132">
-        <v>583.9583757148345</v>
-      </c>
-      <c r="K132">
-        <v>3070.708940191229</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11">
-      <c r="A133">
-        <v>82</v>
-      </c>
-      <c r="B133" t="s">
-        <v>12</v>
-      </c>
-      <c r="C133" t="s">
-        <v>15</v>
-      </c>
-      <c r="D133" t="s">
-        <v>17</v>
-      </c>
-      <c r="E133">
-        <v>177.142</v>
-      </c>
-      <c r="F133">
-        <v>35.86467741084944</v>
-      </c>
-      <c r="G133">
-        <v>193.5984067891444</v>
-      </c>
-      <c r="H133">
-        <v>521.4515536420124</v>
-      </c>
-      <c r="I133">
-        <v>-436.1306734519484</v>
-      </c>
-      <c r="J133">
-        <v>549.8259832492906</v>
-      </c>
-      <c r="K133">
-        <v>3011.693613589971</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11">
-      <c r="A134">
-        <v>82</v>
-      </c>
-      <c r="B134" t="s">
-        <v>12</v>
-      </c>
-      <c r="C134" t="s">
-        <v>15</v>
-      </c>
-      <c r="D134" t="s">
-        <v>17</v>
-      </c>
-      <c r="E134">
-        <v>178.142</v>
-      </c>
-      <c r="F134">
-        <v>34.90946368429996</v>
-      </c>
-      <c r="G134">
-        <v>209.8071165896098</v>
-      </c>
-      <c r="H134">
-        <v>526.3834697031124</v>
-      </c>
-      <c r="I134">
-        <v>-388.0399691248326</v>
-      </c>
-      <c r="J134">
-        <v>515.6935907837471</v>
-      </c>
-      <c r="K134">
-        <v>2937.721364393308</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11">
-      <c r="A135">
-        <v>82</v>
-      </c>
-      <c r="B135" t="s">
-        <v>12</v>
-      </c>
-      <c r="C135" t="s">
-        <v>15</v>
-      </c>
-      <c r="D135" t="s">
-        <v>17</v>
-      </c>
-      <c r="E135">
-        <v>179.142</v>
-      </c>
-      <c r="F135">
-        <v>34.02665982441067</v>
-      </c>
-      <c r="G135">
-        <v>226.0158263900753</v>
-      </c>
-      <c r="H135">
-        <v>531.0631371676833</v>
-      </c>
-      <c r="I135">
-        <v>-338.7650754462976</v>
-      </c>
-      <c r="J135">
-        <v>481.5611983182034</v>
-      </c>
-      <c r="K135">
-        <v>2848.79219260124</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11">
-      <c r="A136">
-        <v>82</v>
-      </c>
-      <c r="B136" t="s">
-        <v>12</v>
-      </c>
-      <c r="C136" t="s">
-        <v>15</v>
-      </c>
-      <c r="D136" t="s">
-        <v>17</v>
-      </c>
-      <c r="E136">
-        <v>180.142</v>
-      </c>
-      <c r="F136">
-        <v>33.20756338315594</v>
-      </c>
-      <c r="G136">
-        <v>242.2245361905407</v>
-      </c>
-      <c r="H136">
-        <v>535.5151084586953</v>
-      </c>
-      <c r="I136">
-        <v>-288.2768328429999</v>
-      </c>
-      <c r="J136">
-        <v>447.4288058526597</v>
-      </c>
-      <c r="K136">
-        <v>2744.906098213768</v>
-      </c>
-    </row>
-    <row r="137" spans="1:11">
-      <c r="A137">
-        <v>82</v>
-      </c>
-      <c r="B137" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" t="s">
-        <v>15</v>
-      </c>
-      <c r="D137" t="s">
-        <v>17</v>
-      </c>
-      <c r="E137">
-        <v>181.142</v>
-      </c>
-      <c r="F137">
-        <v>32.44486813329893</v>
-      </c>
-      <c r="G137">
-        <v>258.4332459910061</v>
-      </c>
-      <c r="H137">
-        <v>539.7605170597142</v>
-      </c>
-      <c r="I137">
-        <v>-236.5453637139275</v>
-      </c>
-      <c r="J137">
-        <v>413.2964133871161</v>
-      </c>
-      <c r="K137">
-        <v>2626.063081230892</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11">
-      <c r="A138">
-        <v>82</v>
-      </c>
-      <c r="B138" t="s">
-        <v>12</v>
-      </c>
-      <c r="C138" t="s">
-        <v>15</v>
-      </c>
-      <c r="D138" t="s">
-        <v>17</v>
-      </c>
-      <c r="E138">
-        <v>182.142</v>
-      </c>
-      <c r="F138">
-        <v>31.73238883645966</v>
-      </c>
-      <c r="G138">
-        <v>274.6419557914716</v>
-      </c>
-      <c r="H138">
-        <v>543.8176842421516</v>
-      </c>
-      <c r="I138">
-        <v>-183.5400547496307</v>
-      </c>
-      <c r="J138">
-        <v>379.1640209215724</v>
-      </c>
-      <c r="K138">
-        <v>2492.263141652609</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11">
-      <c r="A139">
-        <v>82</v>
-      </c>
-      <c r="B139" t="s">
-        <v>12</v>
-      </c>
-      <c r="C139" t="s">
-        <v>15</v>
-      </c>
-      <c r="D139" t="s">
-        <v>17</v>
-      </c>
-      <c r="E139">
-        <v>183.142</v>
-      </c>
-      <c r="F139">
-        <v>31.06484950688257</v>
-      </c>
-      <c r="G139">
-        <v>290.850665591937</v>
-      </c>
-      <c r="H139">
-        <v>547.7025969027833</v>
-      </c>
-      <c r="I139">
-        <v>-129.2295388160779</v>
-      </c>
-      <c r="J139">
-        <v>345.0316284560288</v>
-      </c>
-      <c r="K139">
-        <v>2343.506279478923</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11">
-      <c r="A140">
-        <v>82</v>
-      </c>
-      <c r="B140" t="s">
-        <v>12</v>
-      </c>
-      <c r="C140" t="s">
-        <v>15</v>
-      </c>
-      <c r="D140" t="s">
-        <v>17</v>
-      </c>
-      <c r="E140">
-        <v>184.142</v>
-      </c>
-      <c r="F140">
-        <v>30.4377185642867</v>
-      </c>
-      <c r="G140">
-        <v>307.0593753924024</v>
-      </c>
-      <c r="H140">
-        <v>551.4292880335249</v>
-      </c>
-      <c r="I140">
-        <v>-73.58167639241981</v>
-      </c>
-      <c r="J140">
-        <v>310.8992359904851</v>
-      </c>
-      <c r="K140">
-        <v>2179.792494709832</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11">
-      <c r="A141">
-        <v>82</v>
-      </c>
-      <c r="B141" t="s">
-        <v>12</v>
-      </c>
-      <c r="C141" t="s">
-        <v>15</v>
-      </c>
-      <c r="D141" t="s">
-        <v>17</v>
-      </c>
-      <c r="E141">
-        <v>185.142</v>
-      </c>
-      <c r="F141">
-        <v>29.84707908458857</v>
-      </c>
-      <c r="G141">
-        <v>323.2680851928679</v>
-      </c>
-      <c r="H141">
-        <v>555.0101427025472</v>
-      </c>
-      <c r="I141">
-        <v>-16.56353655167404</v>
-      </c>
-      <c r="J141">
-        <v>276.7668435249414</v>
-      </c>
-      <c r="K141">
-        <v>2001.121787345336</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11">
-      <c r="A142">
-        <v>82</v>
-      </c>
-      <c r="B142" t="s">
-        <v>12</v>
-      </c>
-      <c r="C142" t="s">
-        <v>15</v>
-      </c>
-      <c r="D142" t="s">
-        <v>17</v>
-      </c>
-      <c r="E142">
-        <v>186.142</v>
-      </c>
-      <c r="F142">
-        <v>29.28952564976011</v>
-      </c>
-      <c r="G142">
-        <v>339.4767949933333</v>
-      </c>
-      <c r="H142">
-        <v>558.456146389433</v>
-      </c>
-      <c r="I142">
-        <v>41.85862252692345</v>
-      </c>
-      <c r="J142">
-        <v>242.6344510593978</v>
-      </c>
-      <c r="K142">
-        <v>1807.494157385435</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11">
-      <c r="A143">
-        <v>82</v>
-      </c>
-      <c r="B143" t="s">
-        <v>12</v>
-      </c>
-      <c r="C143" t="s">
-        <v>15</v>
-      </c>
-      <c r="D143" t="s">
-        <v>17</v>
-      </c>
-      <c r="E143">
-        <v>187.142</v>
-      </c>
-      <c r="F143">
-        <v>28.76208158642705</v>
-      </c>
-      <c r="G143">
-        <v>355.6855047937987</v>
-      </c>
-      <c r="H143">
-        <v>561.7770882349269</v>
-      </c>
-      <c r="I143">
-        <v>101.7193735254305</v>
-      </c>
-      <c r="J143">
-        <v>208.5020585938541</v>
-      </c>
-      <c r="K143">
-        <v>1598.90960483013</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11">
-      <c r="A144">
-        <v>82</v>
-      </c>
-      <c r="B144" t="s">
-        <v>12</v>
-      </c>
-      <c r="C144" t="s">
-        <v>15</v>
-      </c>
-      <c r="D144" t="s">
-        <v>17</v>
-      </c>
-      <c r="E144">
-        <v>188.142</v>
-      </c>
-      <c r="F144">
-        <v>28.26213199729439</v>
-      </c>
-      <c r="G144">
-        <v>371.8942145942642</v>
-      </c>
-      <c r="H144">
-        <v>564.9817286844329</v>
-      </c>
-      <c r="I144">
-        <v>163.0541404463952</v>
-      </c>
-      <c r="J144">
-        <v>174.3696661283105</v>
-      </c>
-      <c r="K144">
-        <v>1375.36812967942</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
-      <c r="A145">
-        <v>82</v>
-      </c>
-      <c r="B145" t="s">
-        <v>12</v>
-      </c>
-      <c r="C145" t="s">
-        <v>15</v>
-      </c>
-      <c r="D145" t="s">
-        <v>17</v>
-      </c>
-      <c r="E145">
-        <v>189.142</v>
-      </c>
-      <c r="F145">
-        <v>27.78736914439809</v>
-      </c>
-      <c r="G145">
-        <v>388.1029243947296</v>
-      </c>
-      <c r="H145">
-        <v>568.0779387577714</v>
-      </c>
-      <c r="I145">
-        <v>225.8992195758372</v>
-      </c>
-      <c r="J145">
-        <v>140.2372736627667</v>
-      </c>
-      <c r="K145">
-        <v>1136.869731933305</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
-      <c r="A146">
-        <v>82</v>
-      </c>
-      <c r="B146" t="s">
-        <v>12</v>
-      </c>
-      <c r="C146" t="s">
-        <v>15</v>
-      </c>
-      <c r="D146" t="s">
-        <v>17</v>
-      </c>
-      <c r="E146">
-        <v>190.142</v>
-      </c>
-      <c r="F146">
-        <v>27.33574757994166</v>
-      </c>
-      <c r="G146">
-        <v>404.311634195195</v>
-      </c>
-      <c r="H146">
-        <v>571.0728165197346</v>
-      </c>
-      <c r="I146">
-        <v>290.2918009624295</v>
-      </c>
-      <c r="J146">
-        <v>106.104881197223</v>
-      </c>
-      <c r="K146">
-        <v>883.414411591785</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
-      <c r="A147">
-        <v>82</v>
-      </c>
-      <c r="B147" t="s">
-        <v>12</v>
-      </c>
-      <c r="C147" t="s">
-        <v>15</v>
-      </c>
-      <c r="D147" t="s">
-        <v>17</v>
-      </c>
-      <c r="E147">
-        <v>191.142</v>
-      </c>
-      <c r="F147">
-        <v>26.90544703393703</v>
-      </c>
-      <c r="G147">
-        <v>420.5203439956604</v>
-      </c>
-      <c r="H147">
-        <v>573.9727850886303</v>
-      </c>
-      <c r="I147">
-        <v>356.2699904255771</v>
-      </c>
-      <c r="J147">
-        <v>71.97248873167946</v>
-      </c>
-      <c r="K147">
-        <v>615.002168654861</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
-      <c r="A148">
-        <v>82</v>
-      </c>
-      <c r="B148" t="s">
-        <v>12</v>
-      </c>
-      <c r="C148" t="s">
-        <v>15</v>
-      </c>
-      <c r="D148" t="s">
-        <v>17</v>
-      </c>
-      <c r="E148">
-        <v>192.142</v>
-      </c>
-      <c r="F148">
-        <v>26.49484152258866</v>
-      </c>
-      <c r="G148">
-        <v>436.7290537961259</v>
-      </c>
-      <c r="H148">
-        <v>576.7836755869179</v>
-      </c>
-      <c r="I148">
-        <v>423.8728321054348</v>
-      </c>
-      <c r="J148">
-        <v>37.84009626613573</v>
-      </c>
-      <c r="K148">
-        <v>331.6330031225315</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
-      <c r="A149">
-        <v>82</v>
-      </c>
-      <c r="B149" t="s">
-        <v>12</v>
-      </c>
-      <c r="C149" t="s">
-        <v>15</v>
-      </c>
-      <c r="D149" t="s">
-        <v>17</v>
-      </c>
-      <c r="E149">
-        <v>193.142</v>
-      </c>
-      <c r="F149">
-        <v>26.10247348187196</v>
-      </c>
-      <c r="G149">
-        <v>452.9377635965914</v>
-      </c>
-      <c r="H149">
-        <v>579.510797727547</v>
-      </c>
-      <c r="I149">
-        <v>493.1403315681845</v>
-      </c>
-      <c r="J149">
-        <v>3.707703800592002</v>
-      </c>
-      <c r="K149">
-        <v>33.30691499479737</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
-      <c r="A150">
-        <v>82</v>
-      </c>
-      <c r="B150" t="s">
-        <v>12</v>
-      </c>
-      <c r="C150" t="s">
-        <v>15</v>
-      </c>
-      <c r="D150" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150">
-        <v>194.142</v>
-      </c>
-      <c r="F150">
-        <v>25.72703198820052</v>
-      </c>
-      <c r="G150">
-        <v>469.1464733970568</v>
-      </c>
-      <c r="H150">
-        <v>582.1590001836953</v>
-      </c>
-      <c r="I150">
-        <v>564.1134794802729</v>
-      </c>
-      <c r="J150">
-        <v>-30.42468866495156</v>
-      </c>
-      <c r="K150">
-        <v>-279.9760957283406</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
-      <c r="A151">
-        <v>82</v>
-      </c>
-      <c r="B151" t="s">
-        <v>12</v>
-      </c>
-      <c r="C151" t="s">
-        <v>15</v>
-      </c>
-      <c r="D151" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151">
-        <v>195.142</v>
-      </c>
-      <c r="F151">
-        <v>25.3673343244586</v>
-      </c>
-      <c r="G151">
-        <v>485.3551831975221</v>
-      </c>
-      <c r="H151">
-        <v>584.7327224665859</v>
-      </c>
-      <c r="I151">
-        <v>636.8342758655979</v>
-      </c>
-      <c r="J151">
-        <v>-64.55708113049529</v>
-      </c>
-      <c r="K151">
-        <v>-608.2160290468842</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11">
-      <c r="A152">
-        <v>82</v>
-      </c>
-      <c r="B152" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" t="s">
-        <v>15</v>
-      </c>
-      <c r="D152" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152">
-        <v>196.142</v>
-      </c>
-      <c r="F152">
-        <v>25.02231030073869</v>
-      </c>
-      <c r="G152">
-        <v>501.5638929979876</v>
-      </c>
-      <c r="H152">
-        <v>587.2360397056704</v>
-      </c>
-      <c r="I152">
-        <v>711.345754960006</v>
-      </c>
-      <c r="J152">
-        <v>-98.68947359603902</v>
-      </c>
-      <c r="K152">
-        <v>-951.4128849608333</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11">
-      <c r="A153">
-        <v>82</v>
-      </c>
-      <c r="B153" t="s">
-        <v>12</v>
-      </c>
-      <c r="C153" t="s">
-        <v>15</v>
-      </c>
-      <c r="D153" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153">
-        <v>197.142</v>
-      </c>
-      <c r="F153">
-        <v>24.69098885625152</v>
-      </c>
-      <c r="G153">
-        <v>517.772602798453</v>
-      </c>
-      <c r="H153">
-        <v>589.6727014654778</v>
-      </c>
-      <c r="I153">
-        <v>787.6920106778101</v>
-      </c>
-      <c r="J153">
-        <v>-132.8218660615827</v>
-      </c>
-      <c r="K153">
-        <v>-1309.566663470187</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11">
-      <c r="A154">
-        <v>82</v>
-      </c>
-      <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>15</v>
-      </c>
-      <c r="D154" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154">
-        <v>198.142</v>
-      </c>
-      <c r="F154">
-        <v>24.3724865603595</v>
-      </c>
-      <c r="G154">
-        <v>533.9813125989184</v>
-      </c>
-      <c r="H154">
-        <v>592.0461655274177</v>
-      </c>
-      <c r="I154">
-        <v>865.9182227053974</v>
-      </c>
-      <c r="J154">
-        <v>-166.9542585271261</v>
-      </c>
-      <c r="K154">
-        <v>-1682.677364574942</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11">
-      <c r="A155">
-        <v>82</v>
-      </c>
-      <c r="B155" t="s">
-        <v>12</v>
-      </c>
-      <c r="C155" t="s">
-        <v>15</v>
-      </c>
-      <c r="D155" t="s">
-        <v>17</v>
-      </c>
-      <c r="E155">
-        <v>199.142</v>
-      </c>
-      <c r="F155">
-        <v>24.06599770264711</v>
-      </c>
-      <c r="G155">
-        <v>550.1900223993839</v>
-      </c>
-      <c r="H155">
-        <v>594.3596274004925</v>
-      </c>
-      <c r="I155">
-        <v>946.0706832373694</v>
-      </c>
-      <c r="J155">
-        <v>-201.0866509926699</v>
-      </c>
-      <c r="K155">
-        <v>-2070.744988275104</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11">
-      <c r="A156">
-        <v>82</v>
-      </c>
-      <c r="B156" t="s">
-        <v>12</v>
-      </c>
-      <c r="C156" t="s">
-        <v>15</v>
-      </c>
-      <c r="D156" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156">
-        <v>200.142</v>
-      </c>
-      <c r="F156">
-        <v>23.77078571891932</v>
-      </c>
-      <c r="G156">
-        <v>566.3987321998493</v>
-      </c>
-      <c r="H156">
-        <v>596.6160461929699</v>
-      </c>
-      <c r="I156">
-        <v>1028.196824371029</v>
-      </c>
-      <c r="J156">
-        <v>-235.2190434582136</v>
-      </c>
-      <c r="K156">
-        <v>-2473.769534570672</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11">
-      <c r="A157">
-        <v>82</v>
-      </c>
-      <c r="B157" t="s">
-        <v>12</v>
-      </c>
-      <c r="C157" t="s">
-        <v>15</v>
-      </c>
-      <c r="D157" t="s">
-        <v>17</v>
-      </c>
-      <c r="E157">
-        <v>201.142</v>
-      </c>
-      <c r="F157">
-        <v>23.48617574541761</v>
-      </c>
-      <c r="G157">
-        <v>582.6074420003147</v>
-      </c>
-      <c r="H157">
-        <v>598.8181673705689</v>
-      </c>
-      <c r="I157">
-        <v>1112.34524617544</v>
-      </c>
-      <c r="J157">
-        <v>-269.3514359237573</v>
-      </c>
-      <c r="K157">
-        <v>-2891.751003461645</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11">
-      <c r="A158">
-        <v>82</v>
-      </c>
-      <c r="B158" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" t="s">
-        <v>15</v>
-      </c>
-      <c r="D158" t="s">
-        <v>17</v>
-      </c>
-      <c r="E158">
-        <v>202.142</v>
-      </c>
-      <c r="F158">
-        <v>23.21154812993143</v>
-      </c>
-      <c r="G158">
-        <v>598.8161518007802</v>
-      </c>
-      <c r="H158">
-        <v>600.9685428402358</v>
-      </c>
-      <c r="I158">
-        <v>1198.565745451658</v>
-      </c>
-      <c r="J158">
-        <v>-303.483828389301</v>
-      </c>
-      <c r="K158">
-        <v>-3324.689394948021</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11">
-      <c r="A159">
-        <v>82</v>
-      </c>
-      <c r="B159" t="s">
-        <v>12</v>
-      </c>
-      <c r="C159" t="s">
-        <v>15</v>
-      </c>
-      <c r="D159" t="s">
-        <v>17</v>
-      </c>
-      <c r="E159">
-        <v>203.142</v>
-      </c>
-      <c r="F159">
-        <v>22.94633275780914</v>
-      </c>
-      <c r="G159">
-        <v>615.0248616012456</v>
-      </c>
-      <c r="H159">
-        <v>603.0695487280041</v>
-      </c>
-      <c r="I159">
-        <v>1286.909345201146</v>
-      </c>
-      <c r="J159">
-        <v>-337.6162208548445</v>
-      </c>
-      <c r="K159">
-        <v>-3772.5847090298</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11">
-      <c r="A160">
-        <v>82</v>
-      </c>
-      <c r="B160" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" t="s">
-        <v>15</v>
-      </c>
-      <c r="D160" t="s">
-        <v>17</v>
-      </c>
-      <c r="E160">
-        <v>204.142</v>
-      </c>
-      <c r="F160">
-        <v>22.69000407464098</v>
-      </c>
-      <c r="G160">
-        <v>631.2335714017109</v>
-      </c>
-      <c r="H160">
-        <v>605.1234011615228</v>
-      </c>
-      <c r="I160">
-        <v>1377.428324819844</v>
-      </c>
-      <c r="J160">
-        <v>-371.7486133203882</v>
-      </c>
-      <c r="K160">
-        <v>-4235.436945706986</v>
+        <v>3980069.650214966</v>
       </c>
     </row>
   </sheetData>
